--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>148700</v>
+        <v>154800</v>
       </c>
       <c r="E8" s="3">
-        <v>140300</v>
+        <v>146100</v>
       </c>
       <c r="F8" s="3">
-        <v>131400</v>
+        <v>136800</v>
       </c>
       <c r="G8" s="3">
-        <v>140500</v>
+        <v>146300</v>
       </c>
       <c r="H8" s="3">
-        <v>116600</v>
+        <v>121400</v>
       </c>
       <c r="I8" s="3">
-        <v>119100</v>
+        <v>124000</v>
       </c>
       <c r="J8" s="3">
-        <v>116700</v>
+        <v>121500</v>
       </c>
       <c r="K8" s="3">
         <v>116300</v>
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>79600</v>
+        <v>82900</v>
       </c>
       <c r="E9" s="3">
-        <v>75300</v>
+        <v>78400</v>
       </c>
       <c r="F9" s="3">
-        <v>72700</v>
+        <v>75700</v>
       </c>
       <c r="G9" s="3">
-        <v>71700</v>
+        <v>74700</v>
       </c>
       <c r="H9" s="3">
-        <v>62100</v>
+        <v>64600</v>
       </c>
       <c r="I9" s="3">
-        <v>62300</v>
+        <v>64900</v>
       </c>
       <c r="J9" s="3">
-        <v>63200</v>
+        <v>65800</v>
       </c>
       <c r="K9" s="3">
         <v>59800</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>69100</v>
+        <v>71900</v>
       </c>
       <c r="E10" s="3">
-        <v>65100</v>
+        <v>67800</v>
       </c>
       <c r="F10" s="3">
-        <v>58700</v>
+        <v>61100</v>
       </c>
       <c r="G10" s="3">
-        <v>68700</v>
+        <v>71600</v>
       </c>
       <c r="H10" s="3">
-        <v>54500</v>
+        <v>56800</v>
       </c>
       <c r="I10" s="3">
-        <v>56800</v>
+        <v>59100</v>
       </c>
       <c r="J10" s="3">
-        <v>53500</v>
+        <v>55700</v>
       </c>
       <c r="K10" s="3">
         <v>56500</v>
@@ -906,25 +906,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2200</v>
       </c>
       <c r="I15" s="3">
         <v>2200</v>
       </c>
       <c r="J15" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K15" s="3">
         <v>2600</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>139000</v>
+        <v>144700</v>
       </c>
       <c r="E17" s="3">
-        <v>124500</v>
+        <v>129600</v>
       </c>
       <c r="F17" s="3">
-        <v>133100</v>
+        <v>138600</v>
       </c>
       <c r="G17" s="3">
-        <v>131800</v>
+        <v>137200</v>
       </c>
       <c r="H17" s="3">
-        <v>114800</v>
+        <v>119600</v>
       </c>
       <c r="I17" s="3">
-        <v>113500</v>
+        <v>118200</v>
       </c>
       <c r="J17" s="3">
-        <v>112900</v>
+        <v>117500</v>
       </c>
       <c r="K17" s="3">
         <v>104200</v>
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="E18" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G18" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="H18" s="3">
         <v>1800</v>
       </c>
       <c r="I18" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J18" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K18" s="3">
         <v>12100</v>
@@ -1016,25 +1016,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H20" s="3">
-        <v>-11000</v>
+        <v>-11500</v>
       </c>
       <c r="I20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J20" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="K20" s="3">
         <v>-5600</v>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1103,25 +1103,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="E23" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="F23" s="3">
-        <v>-8100</v>
+        <v>-8500</v>
       </c>
       <c r="G23" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="H23" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="I23" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="J23" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="K23" s="3">
         <v>6600</v>
@@ -1132,22 +1132,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E24" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J24" s="3">
         <v>-700</v>
@@ -1190,25 +1190,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E26" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F26" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G26" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H26" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I26" s="3">
         <v>2300</v>
       </c>
       <c r="J26" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K26" s="3">
         <v>3100</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E27" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F27" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G27" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H27" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I27" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J27" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K27" s="3">
         <v>3100</v>
@@ -1364,25 +1364,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-6300</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H32" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="I32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J32" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K32" s="3">
         <v>5600</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E33" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F33" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G33" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H33" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I33" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J33" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K33" s="3">
         <v>3100</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E35" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F35" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G35" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H35" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I35" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J35" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K35" s="3">
         <v>3100</v>
@@ -1540,7 +1540,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -1627,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>238200</v>
+        <v>248000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -1656,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>271900</v>
+        <v>283100</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>8</v>
@@ -1743,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32300</v>
+        <v>33600</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -1772,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>182300</v>
+        <v>189800</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>486500</v>
+        <v>506600</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -1972,7 +1972,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -2001,7 +2001,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56800</v>
+        <v>59200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -2059,7 +2059,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>146500</v>
+        <v>152600</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -2088,7 +2088,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>232900</v>
+        <v>242500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19200</v>
+        <v>20000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -2233,7 +2233,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>398700</v>
+        <v>415100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
@@ -2391,7 +2391,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>85200</v>
+        <v>88700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -2507,7 +2507,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87800</v>
+        <v>91400</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E81" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F81" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G81" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H81" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I81" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J81" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K81" s="3">
         <v>3100</v>
@@ -2641,7 +2641,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -2815,7 +2815,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39300</v>
+        <v>-40900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -3102,7 +3102,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>36300</v>
+        <v>37800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -3160,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>154800</v>
+        <v>192400</v>
       </c>
       <c r="E8" s="3">
-        <v>146100</v>
+        <v>185200</v>
       </c>
       <c r="F8" s="3">
-        <v>136800</v>
+        <v>147600</v>
       </c>
       <c r="G8" s="3">
-        <v>146300</v>
+        <v>139300</v>
       </c>
       <c r="H8" s="3">
-        <v>121400</v>
+        <v>130400</v>
       </c>
       <c r="I8" s="3">
+        <v>139400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K8" s="3">
         <v>124000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>121500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>82900</v>
+        <v>107900</v>
       </c>
       <c r="E9" s="3">
-        <v>78400</v>
+        <v>93400</v>
       </c>
       <c r="F9" s="3">
-        <v>75700</v>
+        <v>79000</v>
       </c>
       <c r="G9" s="3">
         <v>74700</v>
       </c>
       <c r="H9" s="3">
-        <v>64600</v>
+        <v>72100</v>
       </c>
       <c r="I9" s="3">
+        <v>71200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K9" s="3">
         <v>64900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>65800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>71900</v>
+        <v>84500</v>
       </c>
       <c r="E10" s="3">
-        <v>67800</v>
+        <v>91700</v>
       </c>
       <c r="F10" s="3">
-        <v>61100</v>
+        <v>68600</v>
       </c>
       <c r="G10" s="3">
-        <v>71600</v>
+        <v>64600</v>
       </c>
       <c r="H10" s="3">
-        <v>56800</v>
+        <v>58300</v>
       </c>
       <c r="I10" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K10" s="3">
         <v>59100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I15" s="3">
         <v>2300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2200</v>
       </c>
       <c r="J15" s="3">
         <v>2200</v>
       </c>
       <c r="K15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144700</v>
+        <v>251600</v>
       </c>
       <c r="E17" s="3">
-        <v>129600</v>
+        <v>165700</v>
       </c>
       <c r="F17" s="3">
-        <v>138600</v>
+        <v>137900</v>
       </c>
       <c r="G17" s="3">
-        <v>137200</v>
+        <v>123500</v>
       </c>
       <c r="H17" s="3">
-        <v>119600</v>
+        <v>132100</v>
       </c>
       <c r="I17" s="3">
+        <v>130800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K17" s="3">
         <v>118200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10100</v>
+        <v>-59200</v>
       </c>
       <c r="E18" s="3">
-        <v>16500</v>
+        <v>19400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1800</v>
+        <v>9600</v>
       </c>
       <c r="G18" s="3">
-        <v>9000</v>
+        <v>15700</v>
       </c>
       <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>8100</v>
       </c>
       <c r="E20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-11500</v>
+        <v>-6400</v>
       </c>
       <c r="I20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18900</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>-48700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>21300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>-7300</v>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+      <c r="J21" s="3">
+        <v>-7000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16400</v>
+        <v>-53900</v>
       </c>
       <c r="E23" s="3">
-        <v>17000</v>
+        <v>25200</v>
       </c>
       <c r="F23" s="3">
-        <v>-8500</v>
+        <v>15600</v>
       </c>
       <c r="G23" s="3">
-        <v>13100</v>
+        <v>16200</v>
       </c>
       <c r="H23" s="3">
-        <v>-9600</v>
+        <v>-8100</v>
       </c>
       <c r="I23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K23" s="3">
         <v>5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11800</v>
+        <v>-58300</v>
       </c>
       <c r="E26" s="3">
-        <v>13500</v>
+        <v>18400</v>
       </c>
       <c r="F26" s="3">
-        <v>-8200</v>
+        <v>11200</v>
       </c>
       <c r="G26" s="3">
-        <v>7800</v>
+        <v>12900</v>
       </c>
       <c r="H26" s="3">
-        <v>-5300</v>
+        <v>-7900</v>
       </c>
       <c r="I26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11800</v>
+        <v>-58300</v>
       </c>
       <c r="E27" s="3">
-        <v>13500</v>
+        <v>18400</v>
       </c>
       <c r="F27" s="3">
-        <v>-8200</v>
+        <v>11200</v>
       </c>
       <c r="G27" s="3">
-        <v>7800</v>
+        <v>12900</v>
       </c>
       <c r="H27" s="3">
-        <v>-5300</v>
+        <v>-7900</v>
       </c>
       <c r="I27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>-8100</v>
       </c>
       <c r="E32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4100</v>
-      </c>
       <c r="H32" s="3">
-        <v>11500</v>
+        <v>6400</v>
       </c>
       <c r="I32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11800</v>
+        <v>-58300</v>
       </c>
       <c r="E33" s="3">
-        <v>13500</v>
+        <v>18400</v>
       </c>
       <c r="F33" s="3">
-        <v>-8200</v>
+        <v>11200</v>
       </c>
       <c r="G33" s="3">
-        <v>7800</v>
+        <v>12900</v>
       </c>
       <c r="H33" s="3">
-        <v>-5300</v>
+        <v>-7900</v>
       </c>
       <c r="I33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11800</v>
+        <v>-58300</v>
       </c>
       <c r="E35" s="3">
-        <v>13500</v>
+        <v>18400</v>
       </c>
       <c r="F35" s="3">
-        <v>-8200</v>
+        <v>11200</v>
       </c>
       <c r="G35" s="3">
-        <v>7800</v>
+        <v>12900</v>
       </c>
       <c r="H35" s="3">
-        <v>-5300</v>
+        <v>-7900</v>
       </c>
       <c r="I35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1705,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7200</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
+        <v>65400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,19 +1771,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -1621,19 +1806,25 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>248000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>271500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>270800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>236400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -1650,19 +1841,25 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+        <v>19600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>19800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1679,19 +1876,25 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>283100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
+        <v>363100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>305200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>269800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,19 +1946,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>28200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>32100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -1766,19 +1981,25 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>189800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+        <v>180700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>180800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>180900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2156,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>506600</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
+        <v>572000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>516100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>482800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2225,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>24800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
@@ -1995,19 +2256,25 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>6200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>56400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2024,19 +2291,25 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>63400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>64200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -2053,19 +2326,25 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>152600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
+        <v>99500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>168100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>145400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
@@ -2082,19 +2361,25 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>242500</v>
+        <v>11800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>217100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>231100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2111,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+        <v>19100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2536,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>415100</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
+        <v>130500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>410500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>395600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2726,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>88700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
+        <v>439700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>102900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>84500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2866,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>91400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
+        <v>441500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>105600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>87100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11800</v>
+        <v>-58300</v>
       </c>
       <c r="E81" s="3">
-        <v>13500</v>
+        <v>18400</v>
       </c>
       <c r="F81" s="3">
-        <v>-8200</v>
+        <v>11200</v>
       </c>
       <c r="G81" s="3">
-        <v>7800</v>
+        <v>12900</v>
       </c>
       <c r="H81" s="3">
-        <v>-5300</v>
+        <v>-7900</v>
       </c>
       <c r="I81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,19 +3030,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,19 +3236,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+        <v>-12100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-39000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,20 +3290,22 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,20 +3391,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,19 +3581,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>37800</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+        <v>71600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>36000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -3125,19 +3616,25 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3154,19 +3651,25 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+        <v>59300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-4000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
@@ -3181,6 +3684,12 @@
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>192400</v>
+        <v>178200</v>
       </c>
       <c r="E8" s="3">
-        <v>185200</v>
+        <v>183400</v>
       </c>
       <c r="F8" s="3">
-        <v>147600</v>
+        <v>186100</v>
       </c>
       <c r="G8" s="3">
-        <v>139300</v>
+        <v>179100</v>
       </c>
       <c r="H8" s="3">
-        <v>130400</v>
+        <v>142700</v>
       </c>
       <c r="I8" s="3">
+        <v>134700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K8" s="3">
         <v>139400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>115700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>124000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>121500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107900</v>
+        <v>90900</v>
       </c>
       <c r="E9" s="3">
-        <v>93400</v>
+        <v>95900</v>
       </c>
       <c r="F9" s="3">
-        <v>79000</v>
+        <v>104300</v>
       </c>
       <c r="G9" s="3">
-        <v>74700</v>
+        <v>90400</v>
       </c>
       <c r="H9" s="3">
-        <v>72100</v>
+        <v>76400</v>
       </c>
       <c r="I9" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K9" s="3">
         <v>71200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>61600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>64900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>65800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>84500</v>
+        <v>87300</v>
       </c>
       <c r="E10" s="3">
-        <v>91700</v>
+        <v>87500</v>
       </c>
       <c r="F10" s="3">
-        <v>68600</v>
+        <v>81700</v>
       </c>
       <c r="G10" s="3">
-        <v>64600</v>
+        <v>88700</v>
       </c>
       <c r="H10" s="3">
-        <v>58300</v>
+        <v>66300</v>
       </c>
       <c r="I10" s="3">
+        <v>62400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K10" s="3">
         <v>68200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>54100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>59100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +985,55 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
         <v>2400</v>
       </c>
       <c r="F15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2200</v>
       </c>
       <c r="L15" s="3">
         <v>2200</v>
       </c>
       <c r="M15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>251600</v>
+        <v>182400</v>
       </c>
       <c r="E17" s="3">
-        <v>165700</v>
+        <v>190400</v>
       </c>
       <c r="F17" s="3">
-        <v>137900</v>
+        <v>243300</v>
       </c>
       <c r="G17" s="3">
-        <v>123500</v>
+        <v>160300</v>
       </c>
       <c r="H17" s="3">
-        <v>132100</v>
+        <v>133400</v>
       </c>
       <c r="I17" s="3">
+        <v>119500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>127700</v>
+      </c>
+      <c r="K17" s="3">
         <v>130800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>113900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>118200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>117500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-59200</v>
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>-7000</v>
       </c>
       <c r="F18" s="3">
-        <v>9600</v>
+        <v>-57300</v>
       </c>
       <c r="G18" s="3">
-        <v>15700</v>
+        <v>18800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1700</v>
+        <v>9300</v>
       </c>
       <c r="I18" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,95 +1143,109 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-10900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48700</v>
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
-        <v>30000</v>
+        <v>-4000</v>
       </c>
       <c r="F21" s="3">
-        <v>21300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+        <v>-47100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>20600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>2800</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>2700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1173,87 +1253,105 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-53900</v>
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
-        <v>25200</v>
+        <v>-6700</v>
       </c>
       <c r="F23" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>24400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I23" s="3">
         <v>15600</v>
       </c>
-      <c r="G23" s="3">
-        <v>16200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>2300</v>
       </c>
       <c r="F24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>6600</v>
       </c>
       <c r="H24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-58300</v>
+        <v>-8200</v>
       </c>
       <c r="E26" s="3">
-        <v>18400</v>
+        <v>-9000</v>
       </c>
       <c r="F26" s="3">
-        <v>11200</v>
+        <v>-56400</v>
       </c>
       <c r="G26" s="3">
-        <v>12900</v>
+        <v>17800</v>
       </c>
       <c r="H26" s="3">
-        <v>-7900</v>
+        <v>10900</v>
       </c>
       <c r="I26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-58300</v>
+        <v>-8200</v>
       </c>
       <c r="E27" s="3">
-        <v>18400</v>
+        <v>-9000</v>
       </c>
       <c r="F27" s="3">
-        <v>11200</v>
+        <v>-56400</v>
       </c>
       <c r="G27" s="3">
-        <v>12900</v>
+        <v>17800</v>
       </c>
       <c r="H27" s="3">
-        <v>-7900</v>
+        <v>10900</v>
       </c>
       <c r="I27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>10900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-58300</v>
+        <v>-8200</v>
       </c>
       <c r="E33" s="3">
-        <v>18400</v>
+        <v>-9000</v>
       </c>
       <c r="F33" s="3">
-        <v>11200</v>
+        <v>-56400</v>
       </c>
       <c r="G33" s="3">
-        <v>12900</v>
+        <v>17800</v>
       </c>
       <c r="H33" s="3">
-        <v>-7900</v>
+        <v>10900</v>
       </c>
       <c r="I33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-58300</v>
+        <v>-8200</v>
       </c>
       <c r="E35" s="3">
-        <v>18400</v>
+        <v>-9000</v>
       </c>
       <c r="F35" s="3">
-        <v>11200</v>
+        <v>-56400</v>
       </c>
       <c r="G35" s="3">
-        <v>12900</v>
+        <v>17800</v>
       </c>
       <c r="H35" s="3">
-        <v>-7900</v>
+        <v>10900</v>
       </c>
       <c r="I35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1879,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65400</v>
+        <v>62900</v>
       </c>
       <c r="E41" s="3">
-        <v>6100</v>
+        <v>86700</v>
       </c>
       <c r="F41" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
+        <v>63200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,25 +1957,31 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6600</v>
+        <v>4200</v>
       </c>
       <c r="E43" s="3">
-        <v>7000</v>
+        <v>5700</v>
       </c>
       <c r="F43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G43" s="3">
         <v>6800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="H43" s="3">
+        <v>6500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1998,31 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>271500</v>
+        <v>299200</v>
       </c>
       <c r="E44" s="3">
-        <v>270800</v>
+        <v>278900</v>
       </c>
       <c r="F44" s="3">
-        <v>236400</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+        <v>262600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>261900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>228600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -1847,25 +2039,31 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19600</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>21200</v>
+        <v>16600</v>
       </c>
       <c r="F45" s="3">
-        <v>19800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+        <v>19000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>19200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1882,25 +2080,31 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>363100</v>
+        <v>383500</v>
       </c>
       <c r="E46" s="3">
-        <v>305200</v>
+        <v>387900</v>
       </c>
       <c r="F46" s="3">
-        <v>269800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
+        <v>351100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>295100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>261000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -1917,8 +2121,14 @@
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,25 +2162,31 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28200</v>
+        <v>35200</v>
       </c>
       <c r="E48" s="3">
-        <v>30100</v>
+        <v>25800</v>
       </c>
       <c r="F48" s="3">
-        <v>32100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+        <v>27300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>29100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>31000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -1987,25 +2203,31 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>180700</v>
+        <v>175600</v>
       </c>
       <c r="E49" s="3">
-        <v>180800</v>
+        <v>175700</v>
       </c>
       <c r="F49" s="3">
-        <v>180900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+        <v>174800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>174900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>175000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,31 +2326,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2408,31 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>572000</v>
+        <v>594200</v>
       </c>
       <c r="E54" s="3">
-        <v>516100</v>
+        <v>589300</v>
       </c>
       <c r="F54" s="3">
-        <v>482800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
+        <v>553200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>499200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>466900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2487,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="E57" s="3">
-        <v>45200</v>
+        <v>49200</v>
       </c>
       <c r="F57" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
+        <v>29000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>24000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -2262,8 +2524,14 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,16 +2539,16 @@
         <v>6200</v>
       </c>
       <c r="E58" s="3">
-        <v>59800</v>
+        <v>6100</v>
       </c>
       <c r="F58" s="3">
-        <v>56400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>6000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>57800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>54600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2297,25 +2565,31 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>63400</v>
+        <v>88700</v>
       </c>
       <c r="E59" s="3">
-        <v>63100</v>
+        <v>85200</v>
       </c>
       <c r="F59" s="3">
-        <v>64200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+        <v>61300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>61000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>62100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2332,25 +2606,31 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>99500</v>
+        <v>125600</v>
       </c>
       <c r="E60" s="3">
-        <v>168100</v>
+        <v>140500</v>
       </c>
       <c r="F60" s="3">
-        <v>145400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
+        <v>96300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>162500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>140600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -2367,25 +2647,31 @@
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11800</v>
+        <v>19600</v>
       </c>
       <c r="E61" s="3">
-        <v>217100</v>
+        <v>9900</v>
       </c>
       <c r="F61" s="3">
-        <v>231100</v>
+        <v>11400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>223500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2402,25 +2688,31 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19100</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
-        <v>25300</v>
+        <v>3400</v>
       </c>
       <c r="F62" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+        <v>18500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>18500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2852,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>130500</v>
+        <v>149700</v>
       </c>
       <c r="E66" s="3">
-        <v>410500</v>
+        <v>153800</v>
       </c>
       <c r="F66" s="3">
-        <v>395600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
+        <v>126200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>397000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>382600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +3074,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>439700</v>
+        <v>443700</v>
       </c>
       <c r="E72" s="3">
-        <v>102900</v>
+        <v>433700</v>
       </c>
       <c r="F72" s="3">
-        <v>84500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+        <v>425300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>99500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>81800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3238,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>441500</v>
+        <v>444500</v>
       </c>
       <c r="E76" s="3">
-        <v>105600</v>
+        <v>435500</v>
       </c>
       <c r="F76" s="3">
-        <v>87100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
+        <v>427000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>102100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>84300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-58300</v>
+        <v>-8200</v>
       </c>
       <c r="E81" s="3">
-        <v>18400</v>
+        <v>-9000</v>
       </c>
       <c r="F81" s="3">
-        <v>11200</v>
+        <v>-56400</v>
       </c>
       <c r="G81" s="3">
-        <v>12900</v>
+        <v>17800</v>
       </c>
       <c r="H81" s="3">
-        <v>-7900</v>
+        <v>10900</v>
       </c>
       <c r="I81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,25 +3428,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
         <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+        <v>2300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,25 +3670,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12100</v>
+        <v>-21600</v>
       </c>
       <c r="E89" s="3">
-        <v>4700</v>
+        <v>26300</v>
       </c>
       <c r="F89" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
+        <v>-11700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-37700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,25 +3732,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>-1000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,25 +3851,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>-1000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,25 +4073,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>71600</v>
+        <v>-1700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5000</v>
+        <v>-1300</v>
       </c>
       <c r="F100" s="3">
-        <v>36000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+        <v>69300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>34800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3622,8 +4114,14 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3636,11 +4134,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3657,25 +4155,31 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>59300</v>
+        <v>-23800</v>
       </c>
       <c r="E102" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>57300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
+      <c r="H102" s="3">
+        <v>-3900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
@@ -3690,6 +4194,12 @@
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>178200</v>
+        <v>204700</v>
       </c>
       <c r="E8" s="3">
-        <v>183400</v>
+        <v>172100</v>
       </c>
       <c r="F8" s="3">
-        <v>186100</v>
+        <v>177200</v>
       </c>
       <c r="G8" s="3">
-        <v>179100</v>
+        <v>179800</v>
       </c>
       <c r="H8" s="3">
-        <v>142700</v>
+        <v>173000</v>
       </c>
       <c r="I8" s="3">
-        <v>134700</v>
+        <v>137900</v>
       </c>
       <c r="J8" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K8" s="3">
         <v>126100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>139400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>124000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>121500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>90900</v>
+        <v>95400</v>
       </c>
       <c r="E9" s="3">
-        <v>95900</v>
+        <v>87800</v>
       </c>
       <c r="F9" s="3">
-        <v>104300</v>
+        <v>92700</v>
       </c>
       <c r="G9" s="3">
-        <v>90400</v>
+        <v>100800</v>
       </c>
       <c r="H9" s="3">
-        <v>76400</v>
+        <v>87300</v>
       </c>
       <c r="I9" s="3">
-        <v>72300</v>
+        <v>73800</v>
       </c>
       <c r="J9" s="3">
         <v>69800</v>
       </c>
       <c r="K9" s="3">
+        <v>69800</v>
+      </c>
+      <c r="L9" s="3">
         <v>71200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>87300</v>
+        <v>109300</v>
       </c>
       <c r="E10" s="3">
-        <v>87500</v>
+        <v>84300</v>
       </c>
       <c r="F10" s="3">
-        <v>81700</v>
+        <v>84500</v>
       </c>
       <c r="G10" s="3">
-        <v>88700</v>
+        <v>79000</v>
       </c>
       <c r="H10" s="3">
-        <v>66300</v>
+        <v>85700</v>
       </c>
       <c r="I10" s="3">
-        <v>62400</v>
+        <v>64100</v>
       </c>
       <c r="J10" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K10" s="3">
         <v>56300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>68200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,22 +1028,22 @@
         <v>2300</v>
       </c>
       <c r="G15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J15" s="3">
         <v>2300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L15" s="3">
         <v>2300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2200</v>
       </c>
       <c r="M15" s="3">
         <v>2200</v>
@@ -1030,10 +1052,13 @@
         <v>2200</v>
       </c>
       <c r="O15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>182400</v>
+        <v>194500</v>
       </c>
       <c r="E17" s="3">
-        <v>190400</v>
+        <v>176200</v>
       </c>
       <c r="F17" s="3">
-        <v>243300</v>
+        <v>183900</v>
       </c>
       <c r="G17" s="3">
-        <v>160300</v>
+        <v>235100</v>
       </c>
       <c r="H17" s="3">
-        <v>133400</v>
+        <v>154900</v>
       </c>
       <c r="I17" s="3">
-        <v>119500</v>
+        <v>128900</v>
       </c>
       <c r="J17" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K17" s="3">
         <v>127700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>130800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>113900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4200</v>
+        <v>10100</v>
       </c>
       <c r="E18" s="3">
-        <v>-7000</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
-        <v>-57300</v>
+        <v>-6800</v>
       </c>
       <c r="G18" s="3">
-        <v>18800</v>
+        <v>-55300</v>
       </c>
       <c r="H18" s="3">
-        <v>9300</v>
+        <v>18100</v>
       </c>
       <c r="I18" s="3">
-        <v>15200</v>
+        <v>9000</v>
       </c>
       <c r="J18" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,69 +1177,73 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>7900</v>
-      </c>
       <c r="G20" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="H20" s="3">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1900</v>
+        <v>12600</v>
       </c>
       <c r="E21" s="3">
-        <v>-4000</v>
+        <v>-1600</v>
       </c>
       <c r="F21" s="3">
-        <v>-47100</v>
+        <v>-3900</v>
       </c>
       <c r="G21" s="3">
-        <v>29000</v>
+        <v>-45500</v>
       </c>
       <c r="H21" s="3">
-        <v>20600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>28000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1215,40 +1251,43 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>2700</v>
-      </c>
       <c r="G22" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>2200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1259,8 +1298,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4400</v>
+        <v>9900</v>
       </c>
       <c r="E23" s="3">
-        <v>-6700</v>
+        <v>-4200</v>
       </c>
       <c r="F23" s="3">
-        <v>-52100</v>
+        <v>-6500</v>
       </c>
       <c r="G23" s="3">
-        <v>24400</v>
+        <v>-50300</v>
       </c>
       <c r="H23" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J23" s="3">
         <v>15100</v>
       </c>
-      <c r="I23" s="3">
-        <v>15600</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>4300</v>
-      </c>
       <c r="G24" s="3">
-        <v>6600</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
-        <v>4200</v>
+        <v>6400</v>
       </c>
       <c r="I24" s="3">
-        <v>3100</v>
+        <v>4100</v>
       </c>
       <c r="J24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8200</v>
+        <v>2300</v>
       </c>
       <c r="E26" s="3">
-        <v>-9000</v>
+        <v>-8000</v>
       </c>
       <c r="F26" s="3">
-        <v>-56400</v>
+        <v>-8700</v>
       </c>
       <c r="G26" s="3">
-        <v>17800</v>
+        <v>-54500</v>
       </c>
       <c r="H26" s="3">
-        <v>10900</v>
+        <v>17200</v>
       </c>
       <c r="I26" s="3">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="J26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8200</v>
+        <v>2300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9000</v>
+        <v>-8000</v>
       </c>
       <c r="F27" s="3">
-        <v>-56400</v>
+        <v>-8700</v>
       </c>
       <c r="G27" s="3">
-        <v>17800</v>
+        <v>-54500</v>
       </c>
       <c r="H27" s="3">
-        <v>10900</v>
+        <v>17200</v>
       </c>
       <c r="I27" s="3">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="J27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7900</v>
-      </c>
       <c r="G32" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="H32" s="3">
-        <v>-9000</v>
+        <v>-7600</v>
       </c>
       <c r="I32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8200</v>
+        <v>2300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9000</v>
+        <v>-8000</v>
       </c>
       <c r="F33" s="3">
-        <v>-56400</v>
+        <v>-8700</v>
       </c>
       <c r="G33" s="3">
-        <v>17800</v>
+        <v>-54500</v>
       </c>
       <c r="H33" s="3">
-        <v>10900</v>
+        <v>17200</v>
       </c>
       <c r="I33" s="3">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="J33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8200</v>
+        <v>2300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9000</v>
+        <v>-8000</v>
       </c>
       <c r="F35" s="3">
-        <v>-56400</v>
+        <v>-8700</v>
       </c>
       <c r="G35" s="3">
-        <v>17800</v>
+        <v>-54500</v>
       </c>
       <c r="H35" s="3">
-        <v>10900</v>
+        <v>17200</v>
       </c>
       <c r="I35" s="3">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="J35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,28 +1966,29 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62900</v>
+        <v>87000</v>
       </c>
       <c r="E41" s="3">
-        <v>86700</v>
+        <v>60700</v>
       </c>
       <c r="F41" s="3">
-        <v>63200</v>
+        <v>83700</v>
       </c>
       <c r="G41" s="3">
-        <v>5900</v>
+        <v>61100</v>
       </c>
       <c r="H41" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>5700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4200</v>
+        <v>45600</v>
       </c>
       <c r="E43" s="3">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="F43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I43" s="3">
         <v>6300</v>
       </c>
-      <c r="G43" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2004,28 +2096,31 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>299200</v>
+        <v>266500</v>
       </c>
       <c r="E44" s="3">
-        <v>278900</v>
+        <v>289000</v>
       </c>
       <c r="F44" s="3">
-        <v>262600</v>
+        <v>269500</v>
       </c>
       <c r="G44" s="3">
-        <v>261900</v>
+        <v>253700</v>
       </c>
       <c r="H44" s="3">
-        <v>228600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+        <v>253100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>220900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2045,28 +2140,31 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>19100</v>
       </c>
       <c r="E45" s="3">
         <v>16600</v>
       </c>
       <c r="F45" s="3">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="G45" s="3">
-        <v>20500</v>
+        <v>18300</v>
       </c>
       <c r="H45" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>19800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>18500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2086,28 +2184,31 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>383500</v>
+        <v>418300</v>
       </c>
       <c r="E46" s="3">
-        <v>387900</v>
+        <v>370500</v>
       </c>
       <c r="F46" s="3">
-        <v>351100</v>
+        <v>374700</v>
       </c>
       <c r="G46" s="3">
-        <v>295100</v>
+        <v>339300</v>
       </c>
       <c r="H46" s="3">
-        <v>261000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>285200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>252100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,28 +2272,31 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35200</v>
+        <v>32400</v>
       </c>
       <c r="E48" s="3">
-        <v>25800</v>
+        <v>34000</v>
       </c>
       <c r="F48" s="3">
-        <v>27300</v>
+        <v>24900</v>
       </c>
       <c r="G48" s="3">
-        <v>29100</v>
+        <v>26300</v>
       </c>
       <c r="H48" s="3">
-        <v>31000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>28200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>30000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2209,28 +2316,31 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>175600</v>
+        <v>169500</v>
       </c>
       <c r="E49" s="3">
-        <v>175700</v>
+        <v>169600</v>
       </c>
       <c r="F49" s="3">
-        <v>174800</v>
+        <v>169800</v>
       </c>
       <c r="G49" s="3">
-        <v>174900</v>
+        <v>168900</v>
       </c>
       <c r="H49" s="3">
-        <v>175000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>169000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>169000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,19 +2448,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2358,8 +2477,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,28 +2536,31 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>594200</v>
+        <v>620200</v>
       </c>
       <c r="E54" s="3">
-        <v>589300</v>
+        <v>574100</v>
       </c>
       <c r="F54" s="3">
-        <v>553200</v>
+        <v>569400</v>
       </c>
       <c r="G54" s="3">
-        <v>499200</v>
+        <v>534500</v>
       </c>
       <c r="H54" s="3">
-        <v>466900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>482300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>451100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,28 +2618,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30700</v>
+        <v>42700</v>
       </c>
       <c r="E57" s="3">
-        <v>49200</v>
+        <v>29700</v>
       </c>
       <c r="F57" s="3">
-        <v>29000</v>
+        <v>47500</v>
       </c>
       <c r="G57" s="3">
-        <v>43700</v>
+        <v>28000</v>
       </c>
       <c r="H57" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>42200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>23200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -2530,28 +2660,31 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="E58" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F58" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G58" s="3">
-        <v>57800</v>
+        <v>5800</v>
       </c>
       <c r="H58" s="3">
-        <v>54600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>55900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>52700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2571,28 +2704,31 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88700</v>
+        <v>99200</v>
       </c>
       <c r="E59" s="3">
-        <v>85200</v>
+        <v>85700</v>
       </c>
       <c r="F59" s="3">
-        <v>61300</v>
+        <v>82400</v>
       </c>
       <c r="G59" s="3">
-        <v>61000</v>
+        <v>59200</v>
       </c>
       <c r="H59" s="3">
-        <v>62100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>58900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>60000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2612,28 +2748,31 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>125600</v>
+        <v>147900</v>
       </c>
       <c r="E60" s="3">
-        <v>140500</v>
+        <v>121400</v>
       </c>
       <c r="F60" s="3">
-        <v>96300</v>
+        <v>135700</v>
       </c>
       <c r="G60" s="3">
-        <v>162500</v>
+        <v>93000</v>
       </c>
       <c r="H60" s="3">
-        <v>140600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>157000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>135900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -2653,28 +2792,31 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19600</v>
+        <v>17500</v>
       </c>
       <c r="E61" s="3">
-        <v>9900</v>
+        <v>19000</v>
       </c>
       <c r="F61" s="3">
-        <v>11400</v>
+        <v>9600</v>
       </c>
       <c r="G61" s="3">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="H61" s="3">
-        <v>223500</v>
+        <v>202900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>216000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2694,28 +2836,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4400</v>
+        <v>6100</v>
       </c>
       <c r="E62" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="F62" s="3">
-        <v>18500</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3">
-        <v>24500</v>
+        <v>17900</v>
       </c>
       <c r="H62" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>23700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,28 +3012,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>149700</v>
+        <v>171400</v>
       </c>
       <c r="E66" s="3">
-        <v>153800</v>
+        <v>144600</v>
       </c>
       <c r="F66" s="3">
-        <v>126200</v>
+        <v>148600</v>
       </c>
       <c r="G66" s="3">
-        <v>397000</v>
+        <v>121900</v>
       </c>
       <c r="H66" s="3">
-        <v>382600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>383600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>369700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>443700</v>
+        <v>448800</v>
       </c>
       <c r="E72" s="3">
-        <v>433700</v>
+        <v>428700</v>
       </c>
       <c r="F72" s="3">
-        <v>425300</v>
+        <v>419000</v>
       </c>
       <c r="G72" s="3">
-        <v>99500</v>
+        <v>410900</v>
       </c>
       <c r="H72" s="3">
-        <v>81800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>96200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>79000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,28 +3426,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>444500</v>
+        <v>448700</v>
       </c>
       <c r="E76" s="3">
-        <v>435500</v>
+        <v>429500</v>
       </c>
       <c r="F76" s="3">
-        <v>427000</v>
+        <v>420800</v>
       </c>
       <c r="G76" s="3">
-        <v>102100</v>
+        <v>412600</v>
       </c>
       <c r="H76" s="3">
-        <v>84300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>98700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>81400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8200</v>
+        <v>2300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9000</v>
+        <v>-8000</v>
       </c>
       <c r="F81" s="3">
-        <v>-56400</v>
+        <v>-8700</v>
       </c>
       <c r="G81" s="3">
-        <v>17800</v>
+        <v>-54500</v>
       </c>
       <c r="H81" s="3">
-        <v>10900</v>
+        <v>17200</v>
       </c>
       <c r="I81" s="3">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="J81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,13 +3643,13 @@
         <v>2300</v>
       </c>
       <c r="G83" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+        <v>2200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,28 +3889,31 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21600</v>
+        <v>28700</v>
       </c>
       <c r="E89" s="3">
-        <v>26300</v>
+        <v>-20900</v>
       </c>
       <c r="F89" s="3">
-        <v>-11700</v>
+        <v>25400</v>
       </c>
       <c r="G89" s="3">
-        <v>4500</v>
+        <v>-11300</v>
       </c>
       <c r="H89" s="3">
-        <v>-37700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>4400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-36400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,29 +3953,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,29 +4083,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,19 +4333,19 @@
         <v>-1700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1300</v>
+        <v>-1700</v>
       </c>
       <c r="F100" s="3">
-        <v>69300</v>
+        <v>-1200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4800</v>
+        <v>66900</v>
       </c>
       <c r="H100" s="3">
-        <v>34800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>-4700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>33600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4140,8 +4388,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -4161,28 +4409,31 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23800</v>
+        <v>26200</v>
       </c>
       <c r="E102" s="3">
-        <v>23400</v>
+        <v>-23000</v>
       </c>
       <c r="F102" s="3">
-        <v>57300</v>
+        <v>22600</v>
       </c>
       <c r="G102" s="3">
-        <v>-800</v>
+        <v>55400</v>
       </c>
       <c r="H102" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-3800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
@@ -4200,6 +4451,9 @@
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>204700</v>
+        <v>194700</v>
       </c>
       <c r="E8" s="3">
-        <v>172100</v>
+        <v>163800</v>
       </c>
       <c r="F8" s="3">
-        <v>177200</v>
+        <v>168600</v>
       </c>
       <c r="G8" s="3">
-        <v>179800</v>
+        <v>171000</v>
       </c>
       <c r="H8" s="3">
-        <v>173000</v>
+        <v>164600</v>
       </c>
       <c r="I8" s="3">
-        <v>137900</v>
+        <v>131200</v>
       </c>
       <c r="J8" s="3">
-        <v>130100</v>
+        <v>123800</v>
       </c>
       <c r="K8" s="3">
         <v>126100</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>95400</v>
+        <v>90800</v>
       </c>
       <c r="E9" s="3">
-        <v>87800</v>
+        <v>83600</v>
       </c>
       <c r="F9" s="3">
-        <v>92700</v>
+        <v>88200</v>
       </c>
       <c r="G9" s="3">
-        <v>100800</v>
+        <v>95900</v>
       </c>
       <c r="H9" s="3">
-        <v>87300</v>
+        <v>83100</v>
       </c>
       <c r="I9" s="3">
-        <v>73800</v>
+        <v>70200</v>
       </c>
       <c r="J9" s="3">
-        <v>69800</v>
+        <v>66400</v>
       </c>
       <c r="K9" s="3">
         <v>69800</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>109300</v>
+        <v>103900</v>
       </c>
       <c r="E10" s="3">
-        <v>84300</v>
+        <v>80200</v>
       </c>
       <c r="F10" s="3">
-        <v>84500</v>
+        <v>80400</v>
       </c>
       <c r="G10" s="3">
-        <v>79000</v>
+        <v>75100</v>
       </c>
       <c r="H10" s="3">
-        <v>85700</v>
+        <v>81600</v>
       </c>
       <c r="I10" s="3">
-        <v>64100</v>
+        <v>60900</v>
       </c>
       <c r="J10" s="3">
-        <v>60300</v>
+        <v>57400</v>
       </c>
       <c r="K10" s="3">
         <v>56300</v>
@@ -1019,25 +1019,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J15" s="3">
         <v>2200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2300</v>
       </c>
       <c r="K15" s="3">
         <v>2100</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>194500</v>
+        <v>185100</v>
       </c>
       <c r="E17" s="3">
-        <v>176200</v>
+        <v>167700</v>
       </c>
       <c r="F17" s="3">
-        <v>183900</v>
+        <v>175000</v>
       </c>
       <c r="G17" s="3">
-        <v>235100</v>
+        <v>223700</v>
       </c>
       <c r="H17" s="3">
-        <v>154900</v>
+        <v>147400</v>
       </c>
       <c r="I17" s="3">
-        <v>128900</v>
+        <v>122600</v>
       </c>
       <c r="J17" s="3">
-        <v>115400</v>
+        <v>109800</v>
       </c>
       <c r="K17" s="3">
         <v>127700</v>
@@ -1122,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="E18" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G18" s="3">
-        <v>-55300</v>
+        <v>-52600</v>
       </c>
       <c r="H18" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="I18" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="J18" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="H20" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
@@ -1228,22 +1228,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12600</v>
+        <v>11900</v>
       </c>
       <c r="E21" s="3">
         <v>-1600</v>
       </c>
       <c r="F21" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="G21" s="3">
-        <v>-45500</v>
+        <v>-43300</v>
       </c>
       <c r="H21" s="3">
-        <v>28000</v>
+        <v>26600</v>
       </c>
       <c r="I21" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1278,16 +1278,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I22" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>-50300</v>
+        <v>-47900</v>
       </c>
       <c r="H23" s="3">
-        <v>23600</v>
+        <v>22400</v>
       </c>
       <c r="I23" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="J23" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="K23" s="3">
         <v>-7800</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F24" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K24" s="3">
         <v>-200</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E26" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="F26" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="G26" s="3">
-        <v>-54500</v>
+        <v>-51900</v>
       </c>
       <c r="H26" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="I26" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J26" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="K26" s="3">
         <v>-7600</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="F27" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="G27" s="3">
-        <v>-54500</v>
+        <v>-51900</v>
       </c>
       <c r="H27" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="I27" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J27" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="K27" s="3">
         <v>-7600</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="H32" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="F33" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="G33" s="3">
-        <v>-54500</v>
+        <v>-51900</v>
       </c>
       <c r="H33" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="I33" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J33" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="K33" s="3">
         <v>-7600</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="F35" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="G35" s="3">
-        <v>-54500</v>
+        <v>-51900</v>
       </c>
       <c r="H35" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="I35" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J35" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="K35" s="3">
         <v>-7600</v>
@@ -1973,22 +1973,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87000</v>
+        <v>82800</v>
       </c>
       <c r="E41" s="3">
-        <v>60700</v>
+        <v>57800</v>
       </c>
       <c r="F41" s="3">
-        <v>83700</v>
+        <v>79700</v>
       </c>
       <c r="G41" s="3">
-        <v>61100</v>
+        <v>58100</v>
       </c>
       <c r="H41" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="I41" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2061,22 +2061,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="E43" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F43" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G43" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H43" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="I43" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -2105,22 +2105,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>266500</v>
+        <v>253600</v>
       </c>
       <c r="E44" s="3">
-        <v>289000</v>
+        <v>275000</v>
       </c>
       <c r="F44" s="3">
-        <v>269500</v>
+        <v>256400</v>
       </c>
       <c r="G44" s="3">
-        <v>253700</v>
+        <v>241400</v>
       </c>
       <c r="H44" s="3">
-        <v>253100</v>
+        <v>240800</v>
       </c>
       <c r="I44" s="3">
-        <v>220900</v>
+        <v>210100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2149,22 +2149,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="E45" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="F45" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="H45" s="3">
-        <v>19800</v>
+        <v>18900</v>
       </c>
       <c r="I45" s="3">
-        <v>18500</v>
+        <v>17600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2193,22 +2193,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>418300</v>
+        <v>397900</v>
       </c>
       <c r="E46" s="3">
-        <v>370500</v>
+        <v>352500</v>
       </c>
       <c r="F46" s="3">
-        <v>374700</v>
+        <v>356500</v>
       </c>
       <c r="G46" s="3">
-        <v>339300</v>
+        <v>322800</v>
       </c>
       <c r="H46" s="3">
-        <v>285200</v>
+        <v>271300</v>
       </c>
       <c r="I46" s="3">
-        <v>252100</v>
+        <v>239900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -2281,22 +2281,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E48" s="3">
         <v>32400</v>
       </c>
-      <c r="E48" s="3">
-        <v>34000</v>
-      </c>
       <c r="F48" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="G48" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="H48" s="3">
-        <v>28200</v>
+        <v>26800</v>
       </c>
       <c r="I48" s="3">
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2325,22 +2325,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>169500</v>
+        <v>161200</v>
       </c>
       <c r="E49" s="3">
-        <v>169600</v>
+        <v>161400</v>
       </c>
       <c r="F49" s="3">
-        <v>169800</v>
+        <v>161500</v>
       </c>
       <c r="G49" s="3">
-        <v>168900</v>
+        <v>160700</v>
       </c>
       <c r="H49" s="3">
-        <v>169000</v>
+        <v>160800</v>
       </c>
       <c r="I49" s="3">
-        <v>169000</v>
+        <v>160800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2545,22 +2545,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>620200</v>
+        <v>590000</v>
       </c>
       <c r="E54" s="3">
-        <v>574100</v>
+        <v>546200</v>
       </c>
       <c r="F54" s="3">
-        <v>569400</v>
+        <v>541700</v>
       </c>
       <c r="G54" s="3">
-        <v>534500</v>
+        <v>508500</v>
       </c>
       <c r="H54" s="3">
-        <v>482300</v>
+        <v>458800</v>
       </c>
       <c r="I54" s="3">
-        <v>451100</v>
+        <v>429200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -2625,22 +2625,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="E57" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="F57" s="3">
-        <v>47500</v>
+        <v>45200</v>
       </c>
       <c r="G57" s="3">
-        <v>28000</v>
+        <v>26600</v>
       </c>
       <c r="H57" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="I57" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -2669,22 +2669,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E58" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F58" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G58" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>55900</v>
+        <v>53200</v>
       </c>
       <c r="I58" s="3">
-        <v>52700</v>
+        <v>50200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2713,22 +2713,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99200</v>
+        <v>94400</v>
       </c>
       <c r="E59" s="3">
-        <v>85700</v>
+        <v>81600</v>
       </c>
       <c r="F59" s="3">
-        <v>82400</v>
+        <v>78400</v>
       </c>
       <c r="G59" s="3">
-        <v>59200</v>
+        <v>56400</v>
       </c>
       <c r="H59" s="3">
-        <v>58900</v>
+        <v>56100</v>
       </c>
       <c r="I59" s="3">
-        <v>60000</v>
+        <v>57100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2757,22 +2757,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>147900</v>
+        <v>140700</v>
       </c>
       <c r="E60" s="3">
-        <v>121400</v>
+        <v>115500</v>
       </c>
       <c r="F60" s="3">
-        <v>135700</v>
+        <v>129100</v>
       </c>
       <c r="G60" s="3">
-        <v>93000</v>
+        <v>88500</v>
       </c>
       <c r="H60" s="3">
-        <v>157000</v>
+        <v>149400</v>
       </c>
       <c r="I60" s="3">
-        <v>135900</v>
+        <v>129300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -2801,22 +2801,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="E61" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="F61" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="G61" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="H61" s="3">
-        <v>202900</v>
+        <v>193000</v>
       </c>
       <c r="I61" s="3">
-        <v>216000</v>
+        <v>205500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E62" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G62" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H62" s="3">
-        <v>23700</v>
+        <v>22500</v>
       </c>
       <c r="I62" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3021,22 +3021,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171400</v>
+        <v>163100</v>
       </c>
       <c r="E66" s="3">
-        <v>144600</v>
+        <v>137600</v>
       </c>
       <c r="F66" s="3">
-        <v>148600</v>
+        <v>141400</v>
       </c>
       <c r="G66" s="3">
-        <v>121900</v>
+        <v>116000</v>
       </c>
       <c r="H66" s="3">
-        <v>383600</v>
+        <v>365000</v>
       </c>
       <c r="I66" s="3">
-        <v>369700</v>
+        <v>351700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -3259,22 +3259,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>448800</v>
+        <v>426900</v>
       </c>
       <c r="E72" s="3">
-        <v>428700</v>
+        <v>407800</v>
       </c>
       <c r="F72" s="3">
-        <v>419000</v>
+        <v>398700</v>
       </c>
       <c r="G72" s="3">
-        <v>410900</v>
+        <v>390900</v>
       </c>
       <c r="H72" s="3">
-        <v>96200</v>
+        <v>91500</v>
       </c>
       <c r="I72" s="3">
-        <v>79000</v>
+        <v>75200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -3435,22 +3435,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>448700</v>
+        <v>426900</v>
       </c>
       <c r="E76" s="3">
-        <v>429500</v>
+        <v>408600</v>
       </c>
       <c r="F76" s="3">
-        <v>420800</v>
+        <v>400300</v>
       </c>
       <c r="G76" s="3">
-        <v>412600</v>
+        <v>392500</v>
       </c>
       <c r="H76" s="3">
-        <v>98700</v>
+        <v>93900</v>
       </c>
       <c r="I76" s="3">
-        <v>81400</v>
+        <v>77500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="F81" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="G81" s="3">
-        <v>-54500</v>
+        <v>-51900</v>
       </c>
       <c r="H81" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="I81" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J81" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="K81" s="3">
         <v>-7600</v>
@@ -3634,22 +3634,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3898,22 +3898,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="E89" s="3">
-        <v>-20900</v>
+        <v>-19900</v>
       </c>
       <c r="F89" s="3">
-        <v>25400</v>
+        <v>24100</v>
       </c>
       <c r="G89" s="3">
-        <v>-11300</v>
+        <v>-10800</v>
       </c>
       <c r="H89" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I89" s="3">
-        <v>-36400</v>
+        <v>-34600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -3975,7 +3975,7 @@
         <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4092,22 +4092,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -4330,22 +4330,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F100" s="3">
         <v>-1200</v>
       </c>
       <c r="G100" s="3">
-        <v>66900</v>
+        <v>63700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="I100" s="3">
-        <v>33600</v>
+        <v>32000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -4418,22 +4418,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="E102" s="3">
-        <v>-23000</v>
+        <v>-21900</v>
       </c>
       <c r="F102" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="G102" s="3">
-        <v>55400</v>
+        <v>52700</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>194700</v>
+        <v>169100</v>
       </c>
       <c r="E8" s="3">
-        <v>163800</v>
+        <v>187100</v>
       </c>
       <c r="F8" s="3">
-        <v>168600</v>
+        <v>157400</v>
       </c>
       <c r="G8" s="3">
-        <v>171000</v>
+        <v>162000</v>
       </c>
       <c r="H8" s="3">
-        <v>164600</v>
+        <v>164400</v>
       </c>
       <c r="I8" s="3">
-        <v>131200</v>
+        <v>158200</v>
       </c>
       <c r="J8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K8" s="3">
         <v>123800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>139400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>115700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>124000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>121500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="E9" s="3">
-        <v>83600</v>
+        <v>87200</v>
       </c>
       <c r="F9" s="3">
-        <v>88200</v>
+        <v>80300</v>
       </c>
       <c r="G9" s="3">
-        <v>95900</v>
+        <v>84700</v>
       </c>
       <c r="H9" s="3">
-        <v>83100</v>
+        <v>92200</v>
       </c>
       <c r="I9" s="3">
-        <v>70200</v>
+        <v>79800</v>
       </c>
       <c r="J9" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K9" s="3">
         <v>66400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>103900</v>
+        <v>82500</v>
       </c>
       <c r="E10" s="3">
-        <v>80200</v>
+        <v>99900</v>
       </c>
       <c r="F10" s="3">
-        <v>80400</v>
+        <v>77100</v>
       </c>
       <c r="G10" s="3">
-        <v>75100</v>
+        <v>77300</v>
       </c>
       <c r="H10" s="3">
-        <v>81600</v>
+        <v>72200</v>
       </c>
       <c r="I10" s="3">
-        <v>60900</v>
+        <v>78400</v>
       </c>
       <c r="J10" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K10" s="3">
         <v>57400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>68200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,22 +1054,22 @@
         <v>2100</v>
       </c>
       <c r="H15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="3">
         <v>2100</v>
       </c>
-      <c r="I15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2200</v>
       </c>
       <c r="N15" s="3">
         <v>2200</v>
@@ -1055,10 +1078,13 @@
         <v>2200</v>
       </c>
       <c r="P15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>185100</v>
+        <v>171000</v>
       </c>
       <c r="E17" s="3">
-        <v>167700</v>
+        <v>177900</v>
       </c>
       <c r="F17" s="3">
-        <v>175000</v>
+        <v>161100</v>
       </c>
       <c r="G17" s="3">
-        <v>223700</v>
+        <v>168200</v>
       </c>
       <c r="H17" s="3">
-        <v>147400</v>
+        <v>215000</v>
       </c>
       <c r="I17" s="3">
-        <v>122600</v>
+        <v>141600</v>
       </c>
       <c r="J17" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K17" s="3">
         <v>109800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>113900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9600</v>
+        <v>-2000</v>
       </c>
       <c r="E18" s="3">
-        <v>-3900</v>
+        <v>9300</v>
       </c>
       <c r="F18" s="3">
-        <v>-6400</v>
+        <v>-3700</v>
       </c>
       <c r="G18" s="3">
-        <v>-52600</v>
+        <v>-6200</v>
       </c>
       <c r="H18" s="3">
-        <v>17300</v>
+        <v>-50600</v>
       </c>
       <c r="I18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>8600</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,63 +1224,66 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>7200</v>
-      </c>
       <c r="H20" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="3">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="J20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11900</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>-1600</v>
+        <v>11500</v>
       </c>
       <c r="F21" s="3">
-        <v>-3700</v>
+        <v>-1500</v>
       </c>
       <c r="G21" s="3">
-        <v>-43300</v>
+        <v>-3500</v>
       </c>
       <c r="H21" s="3">
-        <v>26600</v>
+        <v>-41600</v>
       </c>
       <c r="I21" s="3">
-        <v>18900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>25600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1254,25 +1291,28 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1281,16 +1321,16 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1301,8 +1341,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9400</v>
+        <v>-2300</v>
       </c>
       <c r="E23" s="3">
-        <v>-4000</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="G23" s="3">
-        <v>-47900</v>
+        <v>-5900</v>
       </c>
       <c r="H23" s="3">
-        <v>22400</v>
+        <v>-46000</v>
       </c>
       <c r="I23" s="3">
-        <v>13900</v>
+        <v>21500</v>
       </c>
       <c r="J23" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K23" s="3">
         <v>14400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7200</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
-        <v>4000</v>
-      </c>
       <c r="H24" s="3">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="I24" s="3">
-        <v>3900</v>
+        <v>5900</v>
       </c>
       <c r="J24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,84 +1788,90 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="I32" s="3">
-        <v>-8300</v>
+        <v>-7000</v>
       </c>
       <c r="J32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2053,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82800</v>
+        <v>93300</v>
       </c>
       <c r="E41" s="3">
-        <v>57800</v>
+        <v>79500</v>
       </c>
       <c r="F41" s="3">
-        <v>79700</v>
+        <v>55500</v>
       </c>
       <c r="G41" s="3">
-        <v>58100</v>
+        <v>76600</v>
       </c>
       <c r="H41" s="3">
-        <v>5400</v>
+        <v>55900</v>
       </c>
       <c r="I41" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>5200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,31 +2145,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43400</v>
+        <v>5900</v>
       </c>
       <c r="E43" s="3">
-        <v>3900</v>
+        <v>41700</v>
       </c>
       <c r="F43" s="3">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="G43" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="I43" s="3">
         <v>6000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>5800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -2099,31 +2192,34 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>253600</v>
+        <v>225500</v>
       </c>
       <c r="E44" s="3">
-        <v>275000</v>
+        <v>243700</v>
       </c>
       <c r="F44" s="3">
-        <v>256400</v>
+        <v>264300</v>
       </c>
       <c r="G44" s="3">
-        <v>241400</v>
+        <v>246400</v>
       </c>
       <c r="H44" s="3">
-        <v>240800</v>
+        <v>232000</v>
       </c>
       <c r="I44" s="3">
-        <v>210100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>231400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>201900</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2143,31 +2239,34 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18200</v>
+        <v>58600</v>
       </c>
       <c r="E45" s="3">
-        <v>15800</v>
+        <v>17500</v>
       </c>
       <c r="F45" s="3">
         <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>17400</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3">
-        <v>18900</v>
+        <v>16800</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>18100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>16900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2187,31 +2286,34 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>397900</v>
+        <v>383300</v>
       </c>
       <c r="E46" s="3">
-        <v>352500</v>
+        <v>382400</v>
       </c>
       <c r="F46" s="3">
-        <v>356500</v>
+        <v>338800</v>
       </c>
       <c r="G46" s="3">
-        <v>322800</v>
+        <v>342600</v>
       </c>
       <c r="H46" s="3">
-        <v>271300</v>
+        <v>310200</v>
       </c>
       <c r="I46" s="3">
-        <v>239900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>260700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>230500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2380,34 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30900</v>
+        <v>30200</v>
       </c>
       <c r="E48" s="3">
-        <v>32400</v>
+        <v>29700</v>
       </c>
       <c r="F48" s="3">
-        <v>23700</v>
+        <v>31100</v>
       </c>
       <c r="G48" s="3">
-        <v>25100</v>
+        <v>22800</v>
       </c>
       <c r="H48" s="3">
-        <v>26800</v>
+        <v>24100</v>
       </c>
       <c r="I48" s="3">
-        <v>28500</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+        <v>25700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>27400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2319,31 +2427,34 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>161200</v>
+        <v>154800</v>
       </c>
       <c r="E49" s="3">
-        <v>161400</v>
+        <v>154900</v>
       </c>
       <c r="F49" s="3">
-        <v>161500</v>
+        <v>155100</v>
       </c>
       <c r="G49" s="3">
-        <v>160700</v>
+        <v>155200</v>
       </c>
       <c r="H49" s="3">
-        <v>160800</v>
+        <v>154400</v>
       </c>
       <c r="I49" s="3">
-        <v>160800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+        <v>154500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>154600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2462,11 +2582,11 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2480,8 +2600,8 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2662,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>590000</v>
+        <v>568300</v>
       </c>
       <c r="E54" s="3">
-        <v>546200</v>
+        <v>567000</v>
       </c>
       <c r="F54" s="3">
-        <v>541700</v>
+        <v>524900</v>
       </c>
       <c r="G54" s="3">
-        <v>508500</v>
+        <v>520600</v>
       </c>
       <c r="H54" s="3">
-        <v>458800</v>
+        <v>488700</v>
       </c>
       <c r="I54" s="3">
-        <v>429200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+        <v>440900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>412500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2749,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40700</v>
+        <v>42700</v>
       </c>
       <c r="E57" s="3">
-        <v>28300</v>
+        <v>39100</v>
       </c>
       <c r="F57" s="3">
-        <v>45200</v>
+        <v>27200</v>
       </c>
       <c r="G57" s="3">
-        <v>26600</v>
+        <v>43400</v>
       </c>
       <c r="H57" s="3">
-        <v>40200</v>
+        <v>25600</v>
       </c>
       <c r="I57" s="3">
-        <v>22100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+        <v>38600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>21200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2663,31 +2794,34 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="F58" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H58" s="3">
-        <v>53200</v>
+        <v>5300</v>
       </c>
       <c r="I58" s="3">
-        <v>50200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>51100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>48200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2707,31 +2841,34 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94400</v>
+        <v>80800</v>
       </c>
       <c r="E59" s="3">
-        <v>81600</v>
+        <v>90700</v>
       </c>
       <c r="F59" s="3">
         <v>78400</v>
       </c>
       <c r="G59" s="3">
-        <v>56400</v>
+        <v>75300</v>
       </c>
       <c r="H59" s="3">
-        <v>56100</v>
+        <v>54200</v>
       </c>
       <c r="I59" s="3">
-        <v>57100</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+        <v>53900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>54800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2751,31 +2888,34 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>140700</v>
+        <v>128600</v>
       </c>
       <c r="E60" s="3">
-        <v>115500</v>
+        <v>135200</v>
       </c>
       <c r="F60" s="3">
-        <v>129100</v>
+        <v>111000</v>
       </c>
       <c r="G60" s="3">
-        <v>88500</v>
+        <v>124100</v>
       </c>
       <c r="H60" s="3">
-        <v>149400</v>
+        <v>85000</v>
       </c>
       <c r="I60" s="3">
-        <v>129300</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+        <v>143600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>124200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2795,31 +2935,34 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E61" s="3">
-        <v>18100</v>
+        <v>16000</v>
       </c>
       <c r="F61" s="3">
-        <v>9100</v>
+        <v>17400</v>
       </c>
       <c r="G61" s="3">
-        <v>10500</v>
+        <v>8800</v>
       </c>
       <c r="H61" s="3">
-        <v>193000</v>
+        <v>10100</v>
       </c>
       <c r="I61" s="3">
-        <v>205500</v>
+        <v>185500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>197500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,22 +2994,22 @@
         <v>5800</v>
       </c>
       <c r="E62" s="3">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="F62" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="H62" s="3">
-        <v>22500</v>
+        <v>16400</v>
       </c>
       <c r="I62" s="3">
-        <v>17000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>21600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3170,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>163100</v>
+        <v>151400</v>
       </c>
       <c r="E66" s="3">
-        <v>137600</v>
+        <v>156700</v>
       </c>
       <c r="F66" s="3">
-        <v>141400</v>
+        <v>132200</v>
       </c>
       <c r="G66" s="3">
-        <v>116000</v>
+        <v>135900</v>
       </c>
       <c r="H66" s="3">
-        <v>365000</v>
+        <v>111500</v>
       </c>
       <c r="I66" s="3">
-        <v>351700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+        <v>350700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>338000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3424,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>426900</v>
+        <v>416600</v>
       </c>
       <c r="E72" s="3">
-        <v>407800</v>
+        <v>410300</v>
       </c>
       <c r="F72" s="3">
-        <v>398700</v>
+        <v>391900</v>
       </c>
       <c r="G72" s="3">
-        <v>390900</v>
+        <v>383100</v>
       </c>
       <c r="H72" s="3">
-        <v>91500</v>
+        <v>375700</v>
       </c>
       <c r="I72" s="3">
-        <v>75200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+        <v>87900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>72200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3612,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>426900</v>
+        <v>416900</v>
       </c>
       <c r="E76" s="3">
-        <v>408600</v>
+        <v>410300</v>
       </c>
       <c r="F76" s="3">
-        <v>400300</v>
+        <v>392700</v>
       </c>
       <c r="G76" s="3">
-        <v>392500</v>
+        <v>384700</v>
       </c>
       <c r="H76" s="3">
-        <v>93900</v>
+        <v>377200</v>
       </c>
       <c r="I76" s="3">
-        <v>77500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+        <v>90200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>74400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,13 +3845,13 @@
         <v>2100</v>
       </c>
       <c r="H83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>2000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4106,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27300</v>
+        <v>15700</v>
       </c>
       <c r="E89" s="3">
-        <v>-19900</v>
+        <v>26300</v>
       </c>
       <c r="F89" s="3">
-        <v>24100</v>
+        <v>-19100</v>
       </c>
       <c r="G89" s="3">
-        <v>-10800</v>
+        <v>23200</v>
       </c>
       <c r="H89" s="3">
-        <v>4200</v>
+        <v>-10400</v>
       </c>
       <c r="I89" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+        <v>4000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-33300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4174,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4313,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4567,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="G100" s="3">
-        <v>63700</v>
+        <v>-1100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4400</v>
+        <v>61200</v>
       </c>
       <c r="I100" s="3">
-        <v>32000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-4300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>30800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4391,8 +4640,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4412,31 +4661,34 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25000</v>
+        <v>13700</v>
       </c>
       <c r="E102" s="3">
-        <v>-21900</v>
+        <v>24000</v>
       </c>
       <c r="F102" s="3">
-        <v>21500</v>
+        <v>-21000</v>
       </c>
       <c r="G102" s="3">
-        <v>52700</v>
+        <v>20700</v>
       </c>
       <c r="H102" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+      <c r="J102" s="3">
+        <v>-3500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
@@ -4454,6 +4706,9 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>169100</v>
+        <v>179600</v>
       </c>
       <c r="E8" s="3">
-        <v>187100</v>
+        <v>178400</v>
       </c>
       <c r="F8" s="3">
-        <v>157400</v>
+        <v>173000</v>
       </c>
       <c r="G8" s="3">
-        <v>162000</v>
+        <v>191500</v>
       </c>
       <c r="H8" s="3">
-        <v>164400</v>
+        <v>161100</v>
       </c>
       <c r="I8" s="3">
+        <v>165800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K8" s="3">
         <v>158200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>126100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>123800</v>
       </c>
       <c r="L8" s="3">
         <v>126100</v>
       </c>
       <c r="M8" s="3">
+        <v>123800</v>
+      </c>
+      <c r="N8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="O8" s="3">
         <v>139400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>115700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>124000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>121500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>86500</v>
+        <v>89900</v>
       </c>
       <c r="E9" s="3">
-        <v>87200</v>
+        <v>81700</v>
       </c>
       <c r="F9" s="3">
-        <v>80300</v>
+        <v>88600</v>
       </c>
       <c r="G9" s="3">
-        <v>84700</v>
+        <v>89300</v>
       </c>
       <c r="H9" s="3">
-        <v>92200</v>
+        <v>82200</v>
       </c>
       <c r="I9" s="3">
+        <v>86700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K9" s="3">
         <v>79800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>67500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>66400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>69800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>71200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>61600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>64900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>65800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>82500</v>
+        <v>89600</v>
       </c>
       <c r="E10" s="3">
-        <v>99900</v>
+        <v>96700</v>
       </c>
       <c r="F10" s="3">
-        <v>77100</v>
+        <v>84500</v>
       </c>
       <c r="G10" s="3">
-        <v>77300</v>
+        <v>102200</v>
       </c>
       <c r="H10" s="3">
-        <v>72200</v>
+        <v>78900</v>
       </c>
       <c r="I10" s="3">
+        <v>79100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K10" s="3">
         <v>78400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>58600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>56300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>68200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>54100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>59100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>55700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1076,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
         <v>2300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J15" s="3">
         <v>2100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2200</v>
       </c>
       <c r="P15" s="3">
         <v>2200</v>
       </c>
       <c r="Q15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>171000</v>
+        <v>180400</v>
       </c>
       <c r="E17" s="3">
-        <v>177900</v>
+        <v>177200</v>
       </c>
       <c r="F17" s="3">
-        <v>161100</v>
+        <v>175100</v>
       </c>
       <c r="G17" s="3">
-        <v>168200</v>
+        <v>182000</v>
       </c>
       <c r="H17" s="3">
-        <v>215000</v>
+        <v>164900</v>
       </c>
       <c r="I17" s="3">
+        <v>172100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K17" s="3">
         <v>141600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>109800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>127700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>130800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>113900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>118200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>117500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3700</v>
-      </c>
       <c r="G18" s="3">
-        <v>-6200</v>
+        <v>9500</v>
       </c>
       <c r="H18" s="3">
-        <v>-50600</v>
+        <v>-3800</v>
       </c>
       <c r="I18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1278,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1227,228 +1295,258 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-10900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
-        <v>11500</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-41600</v>
-      </c>
       <c r="I21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="K21" s="3">
         <v>25600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>18200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G23" s="3">
-        <v>-5900</v>
+        <v>9200</v>
       </c>
       <c r="H23" s="3">
-        <v>-46000</v>
+        <v>-4000</v>
       </c>
       <c r="I23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="K23" s="3">
         <v>21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E24" s="3">
-        <v>7000</v>
+        <v>-700</v>
       </c>
       <c r="F24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>5100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="E26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-49800</v>
+        <v>-7400</v>
       </c>
       <c r="I26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K26" s="3">
         <v>15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="E27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-49800</v>
+        <v>-7400</v>
       </c>
       <c r="I27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K27" s="3">
         <v>15700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1910,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1791,87 +1931,99 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>10900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="E33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H33" s="3">
-        <v>-49800</v>
+        <v>-7400</v>
       </c>
       <c r="I33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K33" s="3">
         <v>15700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="E35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H35" s="3">
-        <v>-49800</v>
+        <v>-7400</v>
       </c>
       <c r="I35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K35" s="3">
         <v>15700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2226,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93300</v>
+        <v>89700</v>
       </c>
       <c r="E41" s="3">
-        <v>79500</v>
+        <v>115900</v>
       </c>
       <c r="F41" s="3">
-        <v>55500</v>
+        <v>95500</v>
       </c>
       <c r="G41" s="3">
-        <v>76600</v>
+        <v>81400</v>
       </c>
       <c r="H41" s="3">
-        <v>55900</v>
+        <v>56800</v>
       </c>
       <c r="I41" s="3">
+        <v>78400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2275,14 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,38 +2328,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="E43" s="3">
-        <v>41700</v>
+        <v>8400</v>
       </c>
       <c r="F43" s="3">
-        <v>3700</v>
+        <v>6100</v>
       </c>
       <c r="G43" s="3">
-        <v>5000</v>
+        <v>42700</v>
       </c>
       <c r="H43" s="3">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="I43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K43" s="3">
         <v>6000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,38 +2381,44 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>225500</v>
+        <v>267700</v>
       </c>
       <c r="E44" s="3">
-        <v>243700</v>
+        <v>234900</v>
       </c>
       <c r="F44" s="3">
-        <v>264300</v>
+        <v>230800</v>
       </c>
       <c r="G44" s="3">
-        <v>246400</v>
+        <v>249400</v>
       </c>
       <c r="H44" s="3">
-        <v>232000</v>
+        <v>270500</v>
       </c>
       <c r="I44" s="3">
+        <v>252200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>237400</v>
+      </c>
+      <c r="K44" s="3">
         <v>231400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>201900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2242,38 +2434,44 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58600</v>
+        <v>33300</v>
       </c>
       <c r="E45" s="3">
-        <v>17500</v>
+        <v>63200</v>
       </c>
       <c r="F45" s="3">
-        <v>15200</v>
+        <v>59900</v>
       </c>
       <c r="G45" s="3">
-        <v>14600</v>
+        <v>17900</v>
       </c>
       <c r="H45" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="I45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K45" s="3">
         <v>18100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,38 +2487,44 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>383300</v>
+        <v>396900</v>
       </c>
       <c r="E46" s="3">
-        <v>382400</v>
+        <v>422400</v>
       </c>
       <c r="F46" s="3">
-        <v>338800</v>
+        <v>392300</v>
       </c>
       <c r="G46" s="3">
-        <v>342600</v>
+        <v>391400</v>
       </c>
       <c r="H46" s="3">
-        <v>310200</v>
+        <v>346700</v>
       </c>
       <c r="I46" s="3">
+        <v>350700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>317500</v>
+      </c>
+      <c r="K46" s="3">
         <v>260700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>230500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,31 +2540,37 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2383,38 +2593,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30200</v>
+        <v>69300</v>
       </c>
       <c r="E48" s="3">
-        <v>29700</v>
+        <v>40200</v>
       </c>
       <c r="F48" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="G48" s="3">
-        <v>22800</v>
+        <v>30400</v>
       </c>
       <c r="H48" s="3">
-        <v>24100</v>
+        <v>31800</v>
       </c>
       <c r="I48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K48" s="3">
         <v>25700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>27400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,38 +2646,44 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>154800</v>
+        <v>158400</v>
       </c>
       <c r="E49" s="3">
-        <v>154900</v>
+        <v>158500</v>
       </c>
       <c r="F49" s="3">
-        <v>155100</v>
+        <v>158500</v>
       </c>
       <c r="G49" s="3">
-        <v>155200</v>
+        <v>158600</v>
       </c>
       <c r="H49" s="3">
-        <v>154400</v>
+        <v>158700</v>
       </c>
       <c r="I49" s="3">
+        <v>158800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K49" s="3">
         <v>154500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>154600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,28 +2805,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -2603,11 +2843,11 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2911,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>568300</v>
+        <v>631400</v>
       </c>
       <c r="E54" s="3">
-        <v>567000</v>
+        <v>627600</v>
       </c>
       <c r="F54" s="3">
-        <v>524900</v>
+        <v>581600</v>
       </c>
       <c r="G54" s="3">
-        <v>520600</v>
+        <v>580300</v>
       </c>
       <c r="H54" s="3">
-        <v>488700</v>
+        <v>537200</v>
       </c>
       <c r="I54" s="3">
+        <v>532800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>500100</v>
+      </c>
+      <c r="K54" s="3">
         <v>440900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>412500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +3010,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42700</v>
+        <v>35700</v>
       </c>
       <c r="E57" s="3">
-        <v>39100</v>
+        <v>46100</v>
       </c>
       <c r="F57" s="3">
-        <v>27200</v>
+        <v>43700</v>
       </c>
       <c r="G57" s="3">
-        <v>43400</v>
+        <v>40000</v>
       </c>
       <c r="H57" s="3">
-        <v>25600</v>
+        <v>27800</v>
       </c>
       <c r="I57" s="3">
+        <v>44500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K57" s="3">
         <v>38600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>21200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,38 +3059,44 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="E58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>51100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>48200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2844,38 +3112,44 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80800</v>
+        <v>98000</v>
       </c>
       <c r="E59" s="3">
-        <v>90700</v>
+        <v>113800</v>
       </c>
       <c r="F59" s="3">
-        <v>78400</v>
+        <v>82700</v>
       </c>
       <c r="G59" s="3">
-        <v>75300</v>
+        <v>92800</v>
       </c>
       <c r="H59" s="3">
-        <v>54200</v>
+        <v>80200</v>
       </c>
       <c r="I59" s="3">
+        <v>77100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K59" s="3">
         <v>53900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>54800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,38 +3165,44 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>128600</v>
+        <v>139100</v>
       </c>
       <c r="E60" s="3">
-        <v>135200</v>
+        <v>165200</v>
       </c>
       <c r="F60" s="3">
-        <v>111000</v>
+        <v>131600</v>
       </c>
       <c r="G60" s="3">
-        <v>124100</v>
+        <v>138400</v>
       </c>
       <c r="H60" s="3">
-        <v>85000</v>
+        <v>113600</v>
       </c>
       <c r="I60" s="3">
+        <v>127000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K60" s="3">
         <v>143600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>124200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,38 +3218,44 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17000</v>
+        <v>40200</v>
       </c>
       <c r="E61" s="3">
-        <v>16000</v>
+        <v>17200</v>
       </c>
       <c r="F61" s="3">
         <v>17400</v>
       </c>
       <c r="G61" s="3">
-        <v>8800</v>
+        <v>16400</v>
       </c>
       <c r="H61" s="3">
-        <v>10100</v>
+        <v>17800</v>
       </c>
       <c r="I61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K61" s="3">
         <v>185500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>197500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3271,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5800</v>
+        <v>6900</v>
       </c>
       <c r="E62" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
-        <v>3900</v>
+        <v>5900</v>
       </c>
       <c r="G62" s="3">
-        <v>3000</v>
+        <v>5700</v>
       </c>
       <c r="H62" s="3">
-        <v>16400</v>
+        <v>4000</v>
       </c>
       <c r="I62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K62" s="3">
         <v>21600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3483,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151400</v>
+        <v>186100</v>
       </c>
       <c r="E66" s="3">
-        <v>156700</v>
+        <v>186900</v>
       </c>
       <c r="F66" s="3">
-        <v>132200</v>
+        <v>155000</v>
       </c>
       <c r="G66" s="3">
-        <v>135900</v>
+        <v>160400</v>
       </c>
       <c r="H66" s="3">
-        <v>111500</v>
+        <v>135300</v>
       </c>
       <c r="I66" s="3">
+        <v>139100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K66" s="3">
         <v>350700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>338000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3769,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>416600</v>
+        <v>446000</v>
       </c>
       <c r="E72" s="3">
-        <v>410300</v>
+        <v>439100</v>
       </c>
       <c r="F72" s="3">
-        <v>391900</v>
+        <v>426300</v>
       </c>
       <c r="G72" s="3">
-        <v>383100</v>
+        <v>419900</v>
       </c>
       <c r="H72" s="3">
-        <v>375700</v>
+        <v>401100</v>
       </c>
       <c r="I72" s="3">
+        <v>392100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>384500</v>
+      </c>
+      <c r="K72" s="3">
         <v>87900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>72200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3981,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>416900</v>
+        <v>445300</v>
       </c>
       <c r="E76" s="3">
-        <v>410300</v>
+        <v>440600</v>
       </c>
       <c r="F76" s="3">
-        <v>392700</v>
+        <v>426700</v>
       </c>
       <c r="G76" s="3">
-        <v>384700</v>
+        <v>419900</v>
       </c>
       <c r="H76" s="3">
-        <v>377200</v>
+        <v>401900</v>
       </c>
       <c r="I76" s="3">
+        <v>393700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>386100</v>
+      </c>
+      <c r="K76" s="3">
         <v>90200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>74400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="E81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H81" s="3">
-        <v>-49800</v>
+        <v>-7400</v>
       </c>
       <c r="I81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K81" s="3">
         <v>15700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,38 +4223,40 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,38 +4537,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15700</v>
+        <v>-18400</v>
       </c>
       <c r="E89" s="3">
-        <v>26300</v>
+        <v>32600</v>
       </c>
       <c r="F89" s="3">
-        <v>-19100</v>
+        <v>16100</v>
       </c>
       <c r="G89" s="3">
-        <v>23200</v>
+        <v>26900</v>
       </c>
       <c r="H89" s="3">
-        <v>-10400</v>
+        <v>-19600</v>
       </c>
       <c r="I89" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-33300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4156,8 +4590,14 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,38 +4615,40 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-5200</v>
       </c>
       <c r="E91" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,38 +4770,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>-5200</v>
       </c>
       <c r="E94" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +5056,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1300</v>
+        <v>-2600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1100</v>
+        <v>-1600</v>
       </c>
       <c r="H100" s="3">
-        <v>61200</v>
+        <v>-1600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>30800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4643,11 +5141,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -4664,38 +5162,44 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13700</v>
+        <v>-26100</v>
       </c>
       <c r="E102" s="3">
-        <v>24000</v>
+        <v>20400</v>
       </c>
       <c r="F102" s="3">
-        <v>-21000</v>
+        <v>14100</v>
       </c>
       <c r="G102" s="3">
-        <v>20700</v>
+        <v>24600</v>
       </c>
       <c r="H102" s="3">
-        <v>50600</v>
+        <v>-21500</v>
       </c>
       <c r="I102" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4709,6 +5213,12 @@
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>179600</v>
+        <v>201100</v>
       </c>
       <c r="E8" s="3">
-        <v>178400</v>
+        <v>186100</v>
       </c>
       <c r="F8" s="3">
-        <v>173000</v>
+        <v>184900</v>
       </c>
       <c r="G8" s="3">
-        <v>191500</v>
+        <v>179300</v>
       </c>
       <c r="H8" s="3">
-        <v>161100</v>
+        <v>198500</v>
       </c>
       <c r="I8" s="3">
-        <v>165800</v>
+        <v>167000</v>
       </c>
       <c r="J8" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K8" s="3">
         <v>168200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>158200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>115700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>124000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>121500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>93200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>84700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>91800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>92500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>85200</v>
+      </c>
+      <c r="J9" s="3">
         <v>89900</v>
       </c>
-      <c r="E9" s="3">
-        <v>81700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>88600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>89300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>82200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>86700</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>71200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>89600</v>
+        <v>110200</v>
       </c>
       <c r="E10" s="3">
-        <v>96700</v>
+        <v>92900</v>
       </c>
       <c r="F10" s="3">
-        <v>84500</v>
+        <v>100300</v>
       </c>
       <c r="G10" s="3">
-        <v>102200</v>
+        <v>87600</v>
       </c>
       <c r="H10" s="3">
-        <v>78900</v>
+        <v>106000</v>
       </c>
       <c r="I10" s="3">
-        <v>79100</v>
+        <v>81800</v>
       </c>
       <c r="J10" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K10" s="3">
         <v>73900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,49 +1101,52 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I15" s="3">
         <v>2300</v>
       </c>
-      <c r="G15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="I15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2000</v>
       </c>
       <c r="L15" s="3">
         <v>2000</v>
       </c>
       <c r="M15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N15" s="3">
         <v>2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2200</v>
       </c>
       <c r="Q15" s="3">
         <v>2200</v>
@@ -1133,10 +1155,13 @@
         <v>2200</v>
       </c>
       <c r="S15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180400</v>
+        <v>197400</v>
       </c>
       <c r="E17" s="3">
-        <v>177200</v>
+        <v>187000</v>
       </c>
       <c r="F17" s="3">
-        <v>175100</v>
+        <v>183600</v>
       </c>
       <c r="G17" s="3">
-        <v>182000</v>
+        <v>181400</v>
       </c>
       <c r="H17" s="3">
-        <v>164900</v>
+        <v>188700</v>
       </c>
       <c r="I17" s="3">
-        <v>172100</v>
+        <v>170900</v>
       </c>
       <c r="J17" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K17" s="3">
         <v>220000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>113900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>117500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
-        <v>1200</v>
-      </c>
       <c r="F18" s="3">
-        <v>-2000</v>
+        <v>1300</v>
       </c>
       <c r="G18" s="3">
-        <v>9500</v>
+        <v>-2100</v>
       </c>
       <c r="H18" s="3">
-        <v>-3800</v>
+        <v>9800</v>
       </c>
       <c r="I18" s="3">
-        <v>-6300</v>
+        <v>-3900</v>
       </c>
       <c r="J18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-51800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1301,107 +1334,113 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1300</v>
+        <v>6900</v>
       </c>
       <c r="E21" s="3">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="F21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>11700</v>
-      </c>
       <c r="H21" s="3">
-        <v>-1500</v>
+        <v>12200</v>
       </c>
       <c r="I21" s="3">
-        <v>-3600</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-42600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1410,17 +1449,17 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1430,8 +1469,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G23" s="3">
-        <v>9200</v>
+        <v>-2400</v>
       </c>
       <c r="H23" s="3">
-        <v>-4000</v>
+        <v>9600</v>
       </c>
       <c r="I23" s="3">
-        <v>-6000</v>
+        <v>-4100</v>
       </c>
       <c r="J23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-47100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
-        <v>7100</v>
-      </c>
       <c r="H24" s="3">
-        <v>3500</v>
+        <v>7400</v>
       </c>
       <c r="I24" s="3">
-        <v>2100</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3900</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4400</v>
-      </c>
       <c r="G26" s="3">
-        <v>2100</v>
+        <v>-4600</v>
       </c>
       <c r="H26" s="3">
-        <v>-7400</v>
+        <v>2200</v>
       </c>
       <c r="I26" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="J26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-51000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3900</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4400</v>
-      </c>
       <c r="G27" s="3">
-        <v>2100</v>
+        <v>-4600</v>
       </c>
       <c r="H27" s="3">
-        <v>-7400</v>
+        <v>2200</v>
       </c>
       <c r="I27" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="J27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-51000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1937,93 +2006,99 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3900</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4400</v>
-      </c>
       <c r="G33" s="3">
-        <v>2100</v>
+        <v>-4600</v>
       </c>
       <c r="H33" s="3">
-        <v>-7400</v>
+        <v>2200</v>
       </c>
       <c r="I33" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="J33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-51000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3900</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4400</v>
-      </c>
       <c r="G35" s="3">
-        <v>2100</v>
+        <v>-4600</v>
       </c>
       <c r="H35" s="3">
-        <v>-7400</v>
+        <v>2200</v>
       </c>
       <c r="I35" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="J35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-51000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89700</v>
+        <v>54900</v>
       </c>
       <c r="E41" s="3">
-        <v>115900</v>
+        <v>93000</v>
       </c>
       <c r="F41" s="3">
-        <v>95500</v>
+        <v>120100</v>
       </c>
       <c r="G41" s="3">
-        <v>81400</v>
+        <v>99000</v>
       </c>
       <c r="H41" s="3">
-        <v>56800</v>
+        <v>84400</v>
       </c>
       <c r="I41" s="3">
-        <v>78400</v>
+        <v>58900</v>
       </c>
       <c r="J41" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K41" s="3">
         <v>57200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>42700</v>
-      </c>
       <c r="H43" s="3">
-        <v>3800</v>
+        <v>44200</v>
       </c>
       <c r="I43" s="3">
-        <v>5100</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2387,41 +2479,44 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>267700</v>
+        <v>325900</v>
       </c>
       <c r="E44" s="3">
-        <v>234900</v>
+        <v>277400</v>
       </c>
       <c r="F44" s="3">
-        <v>230800</v>
+        <v>243500</v>
       </c>
       <c r="G44" s="3">
-        <v>249400</v>
+        <v>239200</v>
       </c>
       <c r="H44" s="3">
-        <v>270500</v>
+        <v>258500</v>
       </c>
       <c r="I44" s="3">
-        <v>252200</v>
+        <v>280300</v>
       </c>
       <c r="J44" s="3">
+        <v>261400</v>
+      </c>
+      <c r="K44" s="3">
         <v>237400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>231400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>201900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,41 +2535,44 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33300</v>
+        <v>42400</v>
       </c>
       <c r="E45" s="3">
-        <v>63200</v>
+        <v>34500</v>
       </c>
       <c r="F45" s="3">
-        <v>59900</v>
+        <v>65500</v>
       </c>
       <c r="G45" s="3">
-        <v>17900</v>
+        <v>62100</v>
       </c>
       <c r="H45" s="3">
-        <v>15600</v>
+        <v>18600</v>
       </c>
       <c r="I45" s="3">
-        <v>15000</v>
+        <v>16100</v>
       </c>
       <c r="J45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K45" s="3">
         <v>17200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2493,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>396900</v>
+        <v>431100</v>
       </c>
       <c r="E46" s="3">
-        <v>422400</v>
+        <v>411400</v>
       </c>
       <c r="F46" s="3">
-        <v>392300</v>
+        <v>437800</v>
       </c>
       <c r="G46" s="3">
-        <v>391400</v>
+        <v>406600</v>
       </c>
       <c r="H46" s="3">
-        <v>346700</v>
+        <v>405600</v>
       </c>
       <c r="I46" s="3">
-        <v>350700</v>
+        <v>359300</v>
       </c>
       <c r="J46" s="3">
+        <v>363400</v>
+      </c>
+      <c r="K46" s="3">
         <v>317500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>260700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>230500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2546,20 +2647,23 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2572,8 +2676,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2599,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69300</v>
+        <v>78600</v>
       </c>
       <c r="E48" s="3">
-        <v>40200</v>
+        <v>71800</v>
       </c>
       <c r="F48" s="3">
-        <v>30900</v>
+        <v>41700</v>
       </c>
       <c r="G48" s="3">
-        <v>30400</v>
+        <v>32000</v>
       </c>
       <c r="H48" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="I48" s="3">
-        <v>23300</v>
+        <v>33000</v>
       </c>
       <c r="J48" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K48" s="3">
         <v>24700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2652,41 +2759,44 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158400</v>
+        <v>164000</v>
       </c>
       <c r="E49" s="3">
-        <v>158500</v>
+        <v>164100</v>
       </c>
       <c r="F49" s="3">
-        <v>158500</v>
+        <v>164200</v>
       </c>
       <c r="G49" s="3">
-        <v>158600</v>
+        <v>164200</v>
       </c>
       <c r="H49" s="3">
-        <v>158700</v>
+        <v>164400</v>
       </c>
       <c r="I49" s="3">
-        <v>158800</v>
+        <v>164500</v>
       </c>
       <c r="J49" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K49" s="3">
         <v>158000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>154500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>154600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="E52" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+        <v>6400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2831,11 +2950,11 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2849,8 +2968,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>631400</v>
+        <v>685200</v>
       </c>
       <c r="E54" s="3">
-        <v>627600</v>
+        <v>654500</v>
       </c>
       <c r="F54" s="3">
-        <v>581600</v>
+        <v>650400</v>
       </c>
       <c r="G54" s="3">
-        <v>580300</v>
+        <v>602800</v>
       </c>
       <c r="H54" s="3">
-        <v>537200</v>
+        <v>601500</v>
       </c>
       <c r="I54" s="3">
-        <v>532800</v>
+        <v>556800</v>
       </c>
       <c r="J54" s="3">
+        <v>552200</v>
+      </c>
+      <c r="K54" s="3">
         <v>500100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>440900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>412500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35700</v>
+        <v>45800</v>
       </c>
       <c r="E57" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>47800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>45300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J57" s="3">
         <v>46100</v>
       </c>
-      <c r="F57" s="3">
-        <v>43700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>40000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>27800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>44500</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3065,41 +3195,44 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5600</v>
-      </c>
       <c r="H58" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="I58" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="J58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3118,41 +3251,44 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>98000</v>
+        <v>107700</v>
       </c>
       <c r="E59" s="3">
-        <v>113800</v>
+        <v>101500</v>
       </c>
       <c r="F59" s="3">
-        <v>82700</v>
+        <v>118000</v>
       </c>
       <c r="G59" s="3">
-        <v>92800</v>
+        <v>85700</v>
       </c>
       <c r="H59" s="3">
-        <v>80200</v>
+        <v>96200</v>
       </c>
       <c r="I59" s="3">
-        <v>77100</v>
+        <v>83200</v>
       </c>
       <c r="J59" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K59" s="3">
         <v>55400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3171,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>139100</v>
+        <v>159100</v>
       </c>
       <c r="E60" s="3">
-        <v>165200</v>
+        <v>144100</v>
       </c>
       <c r="F60" s="3">
+        <v>171300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>136400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>143400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>117700</v>
+      </c>
+      <c r="J60" s="3">
         <v>131600</v>
       </c>
-      <c r="G60" s="3">
-        <v>138400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>113600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>127000</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>124200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3224,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40200</v>
+        <v>42400</v>
       </c>
       <c r="E61" s="3">
-        <v>17200</v>
+        <v>41600</v>
       </c>
       <c r="F61" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="G61" s="3">
-        <v>16400</v>
+        <v>18000</v>
       </c>
       <c r="H61" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="I61" s="3">
-        <v>9000</v>
+        <v>18400</v>
       </c>
       <c r="J61" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>185500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>197500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3277,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6900</v>
+        <v>10400</v>
       </c>
       <c r="E62" s="3">
-        <v>4500</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4000</v>
-      </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>4100</v>
       </c>
       <c r="J62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>186100</v>
+        <v>211900</v>
       </c>
       <c r="E66" s="3">
-        <v>186900</v>
+        <v>192900</v>
       </c>
       <c r="F66" s="3">
-        <v>155000</v>
+        <v>193700</v>
       </c>
       <c r="G66" s="3">
-        <v>160400</v>
+        <v>160600</v>
       </c>
       <c r="H66" s="3">
-        <v>135300</v>
+        <v>166300</v>
       </c>
       <c r="I66" s="3">
-        <v>139100</v>
+        <v>140300</v>
       </c>
       <c r="J66" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K66" s="3">
         <v>114100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>350700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>338000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>446000</v>
+        <v>470400</v>
       </c>
       <c r="E72" s="3">
-        <v>439100</v>
+        <v>462300</v>
       </c>
       <c r="F72" s="3">
-        <v>426300</v>
+        <v>455100</v>
       </c>
       <c r="G72" s="3">
-        <v>419900</v>
+        <v>441900</v>
       </c>
       <c r="H72" s="3">
-        <v>401100</v>
+        <v>435200</v>
       </c>
       <c r="I72" s="3">
-        <v>392100</v>
+        <v>415700</v>
       </c>
       <c r="J72" s="3">
+        <v>406400</v>
+      </c>
+      <c r="K72" s="3">
         <v>384500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>87900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>445300</v>
+        <v>473400</v>
       </c>
       <c r="E76" s="3">
-        <v>440600</v>
+        <v>461600</v>
       </c>
       <c r="F76" s="3">
-        <v>426700</v>
+        <v>456700</v>
       </c>
       <c r="G76" s="3">
-        <v>419900</v>
+        <v>442200</v>
       </c>
       <c r="H76" s="3">
-        <v>401900</v>
+        <v>435200</v>
       </c>
       <c r="I76" s="3">
-        <v>393700</v>
+        <v>416600</v>
       </c>
       <c r="J76" s="3">
+        <v>408100</v>
+      </c>
+      <c r="K76" s="3">
         <v>386100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3900</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4400</v>
-      </c>
       <c r="G81" s="3">
-        <v>2100</v>
+        <v>-4600</v>
       </c>
       <c r="H81" s="3">
-        <v>-7400</v>
+        <v>2200</v>
       </c>
       <c r="I81" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="J81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-51000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,40 +4422,41 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2000</v>
       </c>
       <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3">
+        <v>2000</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,41 +4756,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18400</v>
+        <v>-28700</v>
       </c>
       <c r="E89" s="3">
-        <v>32600</v>
+        <v>-19000</v>
       </c>
       <c r="F89" s="3">
-        <v>16100</v>
+        <v>33800</v>
       </c>
       <c r="G89" s="3">
-        <v>26900</v>
+        <v>16600</v>
       </c>
       <c r="H89" s="3">
-        <v>-19600</v>
+        <v>27900</v>
       </c>
       <c r="I89" s="3">
-        <v>23700</v>
+        <v>-20300</v>
       </c>
       <c r="J89" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,41 +4836,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5200</v>
+        <v>-7700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-5400</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
+        <v>-10800</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
       </c>
       <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,41 +5002,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5200</v>
+        <v>-7700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10400</v>
+        <v>-5400</v>
       </c>
       <c r="F94" s="3">
-        <v>-700</v>
+        <v>-10800</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
       </c>
       <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2600</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1700</v>
+        <v>-2700</v>
       </c>
       <c r="F100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1600</v>
       </c>
       <c r="H100" s="3">
         <v>-1600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>62600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5115,13 +5360,16 @@
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5147,8 +5395,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
@@ -5168,41 +5416,44 @@
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26100</v>
+        <v>-38100</v>
       </c>
       <c r="E102" s="3">
-        <v>20400</v>
+        <v>-27100</v>
       </c>
       <c r="F102" s="3">
-        <v>14100</v>
+        <v>21100</v>
       </c>
       <c r="G102" s="3">
-        <v>24600</v>
+        <v>14600</v>
       </c>
       <c r="H102" s="3">
-        <v>-21500</v>
+        <v>25500</v>
       </c>
       <c r="I102" s="3">
-        <v>21200</v>
+        <v>-22300</v>
       </c>
       <c r="J102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K102" s="3">
         <v>51800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>201100</v>
+        <v>214200</v>
       </c>
       <c r="E8" s="3">
-        <v>186100</v>
+        <v>204700</v>
       </c>
       <c r="F8" s="3">
-        <v>184900</v>
+        <v>189400</v>
       </c>
       <c r="G8" s="3">
-        <v>179300</v>
+        <v>188200</v>
       </c>
       <c r="H8" s="3">
-        <v>198500</v>
+        <v>182500</v>
       </c>
       <c r="I8" s="3">
-        <v>167000</v>
+        <v>202000</v>
       </c>
       <c r="J8" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K8" s="3">
         <v>171800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>168200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>158200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>139400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>124000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>121500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>90900</v>
+        <v>116500</v>
       </c>
       <c r="E9" s="3">
-        <v>93200</v>
+        <v>92500</v>
       </c>
       <c r="F9" s="3">
-        <v>84700</v>
+        <v>94900</v>
       </c>
       <c r="G9" s="3">
-        <v>91800</v>
+        <v>86200</v>
       </c>
       <c r="H9" s="3">
-        <v>92500</v>
+        <v>93400</v>
       </c>
       <c r="I9" s="3">
-        <v>85200</v>
+        <v>94200</v>
       </c>
       <c r="J9" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K9" s="3">
         <v>89900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>94300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>66400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>71200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>64900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>65800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>110200</v>
+        <v>97700</v>
       </c>
       <c r="E10" s="3">
-        <v>92900</v>
+        <v>112200</v>
       </c>
       <c r="F10" s="3">
-        <v>100300</v>
+        <v>94600</v>
       </c>
       <c r="G10" s="3">
-        <v>87600</v>
+        <v>102000</v>
       </c>
       <c r="H10" s="3">
-        <v>106000</v>
+        <v>89100</v>
       </c>
       <c r="I10" s="3">
-        <v>81800</v>
+        <v>107800</v>
       </c>
       <c r="J10" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K10" s="3">
         <v>82000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>78400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>58600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,52 +1124,55 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
         <v>3000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2000</v>
       </c>
       <c r="M15" s="3">
         <v>2000</v>
       </c>
       <c r="N15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2200</v>
       </c>
       <c r="R15" s="3">
         <v>2200</v>
@@ -1158,10 +1181,13 @@
         <v>2200</v>
       </c>
       <c r="T15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>197400</v>
+        <v>221100</v>
       </c>
       <c r="E17" s="3">
-        <v>187000</v>
+        <v>200900</v>
       </c>
       <c r="F17" s="3">
-        <v>183600</v>
+        <v>190300</v>
       </c>
       <c r="G17" s="3">
-        <v>181400</v>
+        <v>186900</v>
       </c>
       <c r="H17" s="3">
-        <v>188700</v>
+        <v>184700</v>
       </c>
       <c r="I17" s="3">
-        <v>170900</v>
+        <v>192000</v>
       </c>
       <c r="J17" s="3">
+        <v>174000</v>
+      </c>
+      <c r="K17" s="3">
         <v>178400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>220000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>130800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>113900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>117500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3700</v>
+        <v>-6900</v>
       </c>
       <c r="E18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
-        <v>9800</v>
-      </c>
       <c r="I18" s="3">
-        <v>-3900</v>
+        <v>10000</v>
       </c>
       <c r="J18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-51800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,16 +1346,17 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1337,113 +1371,119 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6900</v>
+        <v>-3400</v>
       </c>
       <c r="E21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="F21" s="3">
-        <v>3800</v>
-      </c>
       <c r="G21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>12200</v>
-      </c>
       <c r="I21" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-42600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>-7000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1452,17 +1492,17 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1472,8 +1512,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H23" s="3">
-        <v>9600</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4100</v>
+        <v>9700</v>
       </c>
       <c r="J23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-47100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="K24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F26" s="3">
-        <v>1700</v>
+        <v>-4100</v>
       </c>
       <c r="G26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-7700</v>
-      </c>
       <c r="J26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-51000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F27" s="3">
-        <v>1700</v>
+        <v>-4100</v>
       </c>
       <c r="G27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-7700</v>
-      </c>
       <c r="J27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-51000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,16 +2052,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2009,96 +2079,102 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F33" s="3">
-        <v>1700</v>
+        <v>-4100</v>
       </c>
       <c r="G33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-7700</v>
-      </c>
       <c r="J33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-51000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F35" s="3">
-        <v>1700</v>
+        <v>-4100</v>
       </c>
       <c r="G35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-7700</v>
-      </c>
       <c r="J35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-51000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54900</v>
+        <v>13900</v>
       </c>
       <c r="E41" s="3">
-        <v>93000</v>
+        <v>55900</v>
       </c>
       <c r="F41" s="3">
-        <v>120100</v>
+        <v>94600</v>
       </c>
       <c r="G41" s="3">
-        <v>99000</v>
+        <v>122200</v>
       </c>
       <c r="H41" s="3">
-        <v>84400</v>
+        <v>100700</v>
       </c>
       <c r="I41" s="3">
-        <v>58900</v>
+        <v>85900</v>
       </c>
       <c r="J41" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K41" s="3">
         <v>81200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,44 +2516,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="E43" s="3">
-        <v>6500</v>
+        <v>8100</v>
       </c>
       <c r="F43" s="3">
-        <v>8800</v>
+        <v>6600</v>
       </c>
       <c r="G43" s="3">
-        <v>6300</v>
+        <v>8900</v>
       </c>
       <c r="H43" s="3">
-        <v>44200</v>
+        <v>6400</v>
       </c>
       <c r="I43" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,44 +2575,47 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>325900</v>
+        <v>350900</v>
       </c>
       <c r="E44" s="3">
-        <v>277400</v>
+        <v>331700</v>
       </c>
       <c r="F44" s="3">
+        <v>282400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>247800</v>
+      </c>
+      <c r="H44" s="3">
         <v>243500</v>
       </c>
-      <c r="G44" s="3">
-        <v>239200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>258500</v>
-      </c>
       <c r="I44" s="3">
-        <v>280300</v>
+        <v>263100</v>
       </c>
       <c r="J44" s="3">
+        <v>285300</v>
+      </c>
+      <c r="K44" s="3">
         <v>261400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>237400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>231400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>201900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,44 +2634,47 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42400</v>
+        <v>46300</v>
       </c>
       <c r="E45" s="3">
-        <v>34500</v>
+        <v>43200</v>
       </c>
       <c r="F45" s="3">
-        <v>65500</v>
+        <v>35100</v>
       </c>
       <c r="G45" s="3">
-        <v>62100</v>
+        <v>66600</v>
       </c>
       <c r="H45" s="3">
-        <v>18600</v>
+        <v>63200</v>
       </c>
       <c r="I45" s="3">
-        <v>16100</v>
+        <v>18900</v>
       </c>
       <c r="J45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K45" s="3">
         <v>15500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,44 +2693,47 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431100</v>
+        <v>417600</v>
       </c>
       <c r="E46" s="3">
-        <v>411400</v>
+        <v>438800</v>
       </c>
       <c r="F46" s="3">
-        <v>437800</v>
+        <v>418700</v>
       </c>
       <c r="G46" s="3">
-        <v>406600</v>
+        <v>445600</v>
       </c>
       <c r="H46" s="3">
-        <v>405600</v>
+        <v>413800</v>
       </c>
       <c r="I46" s="3">
-        <v>359300</v>
+        <v>412900</v>
       </c>
       <c r="J46" s="3">
+        <v>365800</v>
+      </c>
+      <c r="K46" s="3">
         <v>363400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>317500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>260700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>230500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,23 +2752,26 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2679,8 +2784,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2706,44 +2811,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78600</v>
+        <v>96800</v>
       </c>
       <c r="E48" s="3">
-        <v>71800</v>
+        <v>80000</v>
       </c>
       <c r="F48" s="3">
-        <v>41700</v>
+        <v>73100</v>
       </c>
       <c r="G48" s="3">
+        <v>42400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I48" s="3">
         <v>32000</v>
       </c>
-      <c r="H48" s="3">
-        <v>31500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>33000</v>
-      </c>
       <c r="J48" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K48" s="3">
         <v>24100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,44 +2870,47 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>164000</v>
+        <v>167300</v>
       </c>
       <c r="E49" s="3">
-        <v>164100</v>
+        <v>166900</v>
       </c>
       <c r="F49" s="3">
-        <v>164200</v>
+        <v>167100</v>
       </c>
       <c r="G49" s="3">
-        <v>164200</v>
+        <v>167200</v>
       </c>
       <c r="H49" s="3">
-        <v>164400</v>
+        <v>167200</v>
       </c>
       <c r="I49" s="3">
-        <v>164500</v>
+        <v>167300</v>
       </c>
       <c r="J49" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K49" s="3">
         <v>164600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>158000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>154500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>154600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E52" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F52" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+        <v>6600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>6600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2953,11 +3073,11 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -2971,8 +3091,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>685200</v>
+        <v>696400</v>
       </c>
       <c r="E54" s="3">
-        <v>654500</v>
+        <v>697500</v>
       </c>
       <c r="F54" s="3">
-        <v>650400</v>
+        <v>666200</v>
       </c>
       <c r="G54" s="3">
-        <v>602800</v>
+        <v>662100</v>
       </c>
       <c r="H54" s="3">
-        <v>601500</v>
+        <v>613600</v>
       </c>
       <c r="I54" s="3">
-        <v>556800</v>
+        <v>612200</v>
       </c>
       <c r="J54" s="3">
+        <v>566800</v>
+      </c>
+      <c r="K54" s="3">
         <v>552200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>440900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>412500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45800</v>
+        <v>39300</v>
       </c>
       <c r="E57" s="3">
-        <v>37000</v>
+        <v>46600</v>
       </c>
       <c r="F57" s="3">
-        <v>47800</v>
+        <v>37700</v>
       </c>
       <c r="G57" s="3">
-        <v>45300</v>
+        <v>48600</v>
       </c>
       <c r="H57" s="3">
-        <v>41400</v>
+        <v>46100</v>
       </c>
       <c r="I57" s="3">
-        <v>28800</v>
+        <v>42200</v>
       </c>
       <c r="J57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K57" s="3">
         <v>46100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,44 +3329,47 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,44 +3388,47 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107700</v>
+        <v>95100</v>
       </c>
       <c r="E59" s="3">
-        <v>101500</v>
+        <v>109600</v>
       </c>
       <c r="F59" s="3">
-        <v>118000</v>
+        <v>103400</v>
       </c>
       <c r="G59" s="3">
-        <v>85700</v>
+        <v>120100</v>
       </c>
       <c r="H59" s="3">
-        <v>96200</v>
+        <v>87300</v>
       </c>
       <c r="I59" s="3">
-        <v>83200</v>
+        <v>97900</v>
       </c>
       <c r="J59" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K59" s="3">
         <v>79900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,44 +3447,47 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>159100</v>
+        <v>147000</v>
       </c>
       <c r="E60" s="3">
-        <v>144100</v>
+        <v>162000</v>
       </c>
       <c r="F60" s="3">
-        <v>171300</v>
+        <v>146700</v>
       </c>
       <c r="G60" s="3">
-        <v>136400</v>
+        <v>174300</v>
       </c>
       <c r="H60" s="3">
-        <v>143400</v>
+        <v>138900</v>
       </c>
       <c r="I60" s="3">
-        <v>117700</v>
+        <v>146000</v>
       </c>
       <c r="J60" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K60" s="3">
         <v>131600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>143600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,44 +3506,47 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F61" s="3">
         <v>42400</v>
       </c>
-      <c r="E61" s="3">
-        <v>41600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>17800</v>
-      </c>
       <c r="G61" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="H61" s="3">
-        <v>17000</v>
+        <v>18300</v>
       </c>
       <c r="I61" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="J61" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>185500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>197500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3565,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="E62" s="3">
-        <v>7100</v>
+        <v>10600</v>
       </c>
       <c r="F62" s="3">
-        <v>4700</v>
+        <v>7300</v>
       </c>
       <c r="G62" s="3">
-        <v>6100</v>
+        <v>4800</v>
       </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="I62" s="3">
-        <v>4100</v>
+        <v>6000</v>
       </c>
       <c r="J62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>211900</v>
+        <v>212500</v>
       </c>
       <c r="E66" s="3">
-        <v>192900</v>
+        <v>215700</v>
       </c>
       <c r="F66" s="3">
-        <v>193700</v>
+        <v>196400</v>
       </c>
       <c r="G66" s="3">
-        <v>160600</v>
+        <v>197200</v>
       </c>
       <c r="H66" s="3">
-        <v>166300</v>
+        <v>163500</v>
       </c>
       <c r="I66" s="3">
-        <v>140300</v>
+        <v>169200</v>
       </c>
       <c r="J66" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K66" s="3">
         <v>144100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>350700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>338000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>470400</v>
+        <v>481400</v>
       </c>
       <c r="E72" s="3">
-        <v>462300</v>
+        <v>478800</v>
       </c>
       <c r="F72" s="3">
-        <v>455100</v>
+        <v>470600</v>
       </c>
       <c r="G72" s="3">
-        <v>441900</v>
+        <v>463200</v>
       </c>
       <c r="H72" s="3">
-        <v>435200</v>
+        <v>449800</v>
       </c>
       <c r="I72" s="3">
-        <v>415700</v>
+        <v>443000</v>
       </c>
       <c r="J72" s="3">
+        <v>423200</v>
+      </c>
+      <c r="K72" s="3">
         <v>406400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>384500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>87900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>473400</v>
+        <v>483900</v>
       </c>
       <c r="E76" s="3">
-        <v>461600</v>
+        <v>481800</v>
       </c>
       <c r="F76" s="3">
-        <v>456700</v>
+        <v>469800</v>
       </c>
       <c r="G76" s="3">
-        <v>442200</v>
+        <v>464900</v>
       </c>
       <c r="H76" s="3">
-        <v>435200</v>
+        <v>450100</v>
       </c>
       <c r="I76" s="3">
-        <v>416600</v>
+        <v>443000</v>
       </c>
       <c r="J76" s="3">
+        <v>424000</v>
+      </c>
+      <c r="K76" s="3">
         <v>408100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>386100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F81" s="3">
-        <v>1700</v>
+        <v>-4100</v>
       </c>
       <c r="G81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-7700</v>
-      </c>
       <c r="J81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-51000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,43 +4621,44 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2000</v>
       </c>
       <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>2000</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,44 +4973,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-28700</v>
+        <v>-40800</v>
       </c>
       <c r="E89" s="3">
-        <v>-19000</v>
+        <v>-29200</v>
       </c>
       <c r="F89" s="3">
-        <v>33800</v>
+        <v>-19400</v>
       </c>
       <c r="G89" s="3">
-        <v>16600</v>
+        <v>34400</v>
       </c>
       <c r="H89" s="3">
-        <v>27900</v>
+        <v>16900</v>
       </c>
       <c r="I89" s="3">
-        <v>-20300</v>
+        <v>28400</v>
       </c>
       <c r="J89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K89" s="3">
         <v>24600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,44 +5057,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7700</v>
+        <v>-6500</v>
       </c>
       <c r="E91" s="3">
-        <v>-5400</v>
+        <v>-7300</v>
       </c>
       <c r="F91" s="3">
-        <v>-10800</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,44 +5232,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7700</v>
+        <v>-7000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5400</v>
+        <v>-7900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10800</v>
+        <v>-5500</v>
       </c>
       <c r="G94" s="3">
-        <v>-700</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
         <v>-700</v>
       </c>
       <c r="I94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5550,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>62600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5363,17 +5609,20 @@
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5398,8 +5647,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
@@ -5419,44 +5668,47 @@
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-38100</v>
+        <v>-41900</v>
       </c>
       <c r="E102" s="3">
-        <v>-27100</v>
+        <v>-38800</v>
       </c>
       <c r="F102" s="3">
-        <v>21100</v>
+        <v>-27600</v>
       </c>
       <c r="G102" s="3">
-        <v>14600</v>
+        <v>21500</v>
       </c>
       <c r="H102" s="3">
-        <v>25500</v>
+        <v>14800</v>
       </c>
       <c r="I102" s="3">
-        <v>-22300</v>
+        <v>25900</v>
       </c>
       <c r="J102" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K102" s="3">
         <v>22000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>8</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>214200</v>
+        <v>215600</v>
       </c>
       <c r="E8" s="3">
-        <v>204700</v>
+        <v>206100</v>
       </c>
       <c r="F8" s="3">
-        <v>189400</v>
+        <v>190700</v>
       </c>
       <c r="G8" s="3">
-        <v>188200</v>
+        <v>189500</v>
       </c>
       <c r="H8" s="3">
-        <v>182500</v>
+        <v>183800</v>
       </c>
       <c r="I8" s="3">
-        <v>202000</v>
+        <v>203400</v>
       </c>
       <c r="J8" s="3">
-        <v>169900</v>
+        <v>171100</v>
       </c>
       <c r="K8" s="3">
         <v>171800</v>
@@ -815,25 +815,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>116500</v>
+        <v>117200</v>
       </c>
       <c r="E9" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="F9" s="3">
-        <v>94900</v>
+        <v>95500</v>
       </c>
       <c r="G9" s="3">
-        <v>86200</v>
+        <v>86800</v>
       </c>
       <c r="H9" s="3">
-        <v>93400</v>
+        <v>94000</v>
       </c>
       <c r="I9" s="3">
-        <v>94200</v>
+        <v>94800</v>
       </c>
       <c r="J9" s="3">
-        <v>86700</v>
+        <v>87300</v>
       </c>
       <c r="K9" s="3">
         <v>89900</v>
@@ -874,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>97700</v>
+        <v>98400</v>
       </c>
       <c r="E10" s="3">
-        <v>112200</v>
+        <v>112900</v>
       </c>
       <c r="F10" s="3">
-        <v>94600</v>
+        <v>95200</v>
       </c>
       <c r="G10" s="3">
-        <v>102000</v>
+        <v>102700</v>
       </c>
       <c r="H10" s="3">
-        <v>89100</v>
+        <v>89700</v>
       </c>
       <c r="I10" s="3">
-        <v>107800</v>
+        <v>108600</v>
       </c>
       <c r="J10" s="3">
-        <v>83200</v>
+        <v>83800</v>
       </c>
       <c r="K10" s="3">
         <v>82000</v>
@@ -1139,19 +1139,19 @@
         <v>3000</v>
       </c>
       <c r="F15" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H15" s="3">
         <v>2500</v>
       </c>
       <c r="I15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J15" s="3">
         <v>2400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2300</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1212,25 +1212,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221100</v>
+        <v>222600</v>
       </c>
       <c r="E17" s="3">
-        <v>200900</v>
+        <v>202300</v>
       </c>
       <c r="F17" s="3">
-        <v>190300</v>
+        <v>191600</v>
       </c>
       <c r="G17" s="3">
-        <v>186900</v>
+        <v>188200</v>
       </c>
       <c r="H17" s="3">
-        <v>184700</v>
+        <v>185900</v>
       </c>
       <c r="I17" s="3">
-        <v>192000</v>
+        <v>193300</v>
       </c>
       <c r="J17" s="3">
-        <v>174000</v>
+        <v>175100</v>
       </c>
       <c r="K17" s="3">
         <v>178400</v>
@@ -1283,10 +1283,10 @@
         <v>1300</v>
       </c>
       <c r="H18" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I18" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="J18" s="3">
         <v>-4000</v>
@@ -1412,10 +1412,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E21" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F21" s="3">
         <v>1800</v>
@@ -1427,7 +1427,7 @@
         <v>300</v>
       </c>
       <c r="I21" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="J21" s="3">
         <v>-1600</v>
@@ -1545,7 +1545,7 @@
         <v>-2500</v>
       </c>
       <c r="I23" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="J23" s="3">
         <v>-4200</v>
@@ -1589,7 +1589,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E24" s="3">
         <v>3800</v>
@@ -1604,7 +1604,7 @@
         <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J24" s="3">
         <v>3700</v>
@@ -1707,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -1719,7 +1719,7 @@
         <v>1800</v>
       </c>
       <c r="H26" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I26" s="3">
         <v>2200</v>
@@ -1766,7 +1766,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -1778,7 +1778,7 @@
         <v>1800</v>
       </c>
       <c r="H27" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I27" s="3">
         <v>2200</v>
@@ -2120,7 +2120,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -2132,7 +2132,7 @@
         <v>1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I33" s="3">
         <v>2200</v>
@@ -2238,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -2250,7 +2250,7 @@
         <v>1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I35" s="3">
         <v>2200</v>
@@ -2407,25 +2407,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="E41" s="3">
-        <v>55900</v>
+        <v>56200</v>
       </c>
       <c r="F41" s="3">
-        <v>94600</v>
+        <v>95300</v>
       </c>
       <c r="G41" s="3">
-        <v>122200</v>
+        <v>123100</v>
       </c>
       <c r="H41" s="3">
-        <v>100700</v>
+        <v>101400</v>
       </c>
       <c r="I41" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="J41" s="3">
-        <v>60000</v>
+        <v>60400</v>
       </c>
       <c r="K41" s="3">
         <v>81200</v>
@@ -2528,22 +2528,22 @@
         <v>6500</v>
       </c>
       <c r="E43" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="F43" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G43" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="H43" s="3">
         <v>6400</v>
       </c>
       <c r="I43" s="3">
-        <v>45000</v>
+        <v>45300</v>
       </c>
       <c r="J43" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K43" s="3">
         <v>5300</v>
@@ -2584,25 +2584,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>350900</v>
+        <v>353300</v>
       </c>
       <c r="E44" s="3">
-        <v>331700</v>
+        <v>333900</v>
       </c>
       <c r="F44" s="3">
-        <v>282400</v>
+        <v>284200</v>
       </c>
       <c r="G44" s="3">
-        <v>247800</v>
+        <v>249500</v>
       </c>
       <c r="H44" s="3">
-        <v>243500</v>
+        <v>245100</v>
       </c>
       <c r="I44" s="3">
-        <v>263100</v>
+        <v>264900</v>
       </c>
       <c r="J44" s="3">
-        <v>285300</v>
+        <v>287200</v>
       </c>
       <c r="K44" s="3">
         <v>261400</v>
@@ -2643,25 +2643,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46300</v>
+        <v>46600</v>
       </c>
       <c r="E45" s="3">
-        <v>43200</v>
+        <v>43500</v>
       </c>
       <c r="F45" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="G45" s="3">
-        <v>66600</v>
+        <v>67100</v>
       </c>
       <c r="H45" s="3">
-        <v>63200</v>
+        <v>63600</v>
       </c>
       <c r="I45" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="J45" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="K45" s="3">
         <v>15500</v>
@@ -2702,25 +2702,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>417600</v>
+        <v>420400</v>
       </c>
       <c r="E46" s="3">
-        <v>438800</v>
+        <v>441800</v>
       </c>
       <c r="F46" s="3">
-        <v>418700</v>
+        <v>421500</v>
       </c>
       <c r="G46" s="3">
-        <v>445600</v>
+        <v>448600</v>
       </c>
       <c r="H46" s="3">
-        <v>413800</v>
+        <v>416600</v>
       </c>
       <c r="I46" s="3">
-        <v>412900</v>
+        <v>415700</v>
       </c>
       <c r="J46" s="3">
-        <v>365800</v>
+        <v>368200</v>
       </c>
       <c r="K46" s="3">
         <v>363400</v>
@@ -2761,10 +2761,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F47" s="3">
         <v>700</v>
@@ -2820,25 +2820,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>96800</v>
+        <v>97500</v>
       </c>
       <c r="E48" s="3">
-        <v>80000</v>
+        <v>80600</v>
       </c>
       <c r="F48" s="3">
-        <v>73100</v>
+        <v>73600</v>
       </c>
       <c r="G48" s="3">
-        <v>42400</v>
+        <v>42700</v>
       </c>
       <c r="H48" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="I48" s="3">
-        <v>32000</v>
+        <v>32200</v>
       </c>
       <c r="J48" s="3">
-        <v>33600</v>
+        <v>33800</v>
       </c>
       <c r="K48" s="3">
         <v>24100</v>
@@ -2879,25 +2879,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>167300</v>
+        <v>168500</v>
       </c>
       <c r="E49" s="3">
-        <v>166900</v>
+        <v>168100</v>
       </c>
       <c r="F49" s="3">
-        <v>167100</v>
+        <v>168200</v>
       </c>
       <c r="G49" s="3">
-        <v>167200</v>
+        <v>168300</v>
       </c>
       <c r="H49" s="3">
-        <v>167200</v>
+        <v>168300</v>
       </c>
       <c r="I49" s="3">
-        <v>167300</v>
+        <v>168400</v>
       </c>
       <c r="J49" s="3">
-        <v>167400</v>
+        <v>168600</v>
       </c>
       <c r="K49" s="3">
         <v>164600</v>
@@ -3174,25 +3174,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>696400</v>
+        <v>701000</v>
       </c>
       <c r="E54" s="3">
-        <v>697500</v>
+        <v>702100</v>
       </c>
       <c r="F54" s="3">
-        <v>666200</v>
+        <v>670600</v>
       </c>
       <c r="G54" s="3">
-        <v>662100</v>
+        <v>666500</v>
       </c>
       <c r="H54" s="3">
-        <v>613600</v>
+        <v>617700</v>
       </c>
       <c r="I54" s="3">
-        <v>612200</v>
+        <v>616300</v>
       </c>
       <c r="J54" s="3">
-        <v>566800</v>
+        <v>570500</v>
       </c>
       <c r="K54" s="3">
         <v>552200</v>
@@ -3279,25 +3279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="E57" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="F57" s="3">
-        <v>37700</v>
+        <v>37900</v>
       </c>
       <c r="G57" s="3">
-        <v>48600</v>
+        <v>49000</v>
       </c>
       <c r="H57" s="3">
-        <v>46100</v>
+        <v>46400</v>
       </c>
       <c r="I57" s="3">
-        <v>42200</v>
+        <v>42500</v>
       </c>
       <c r="J57" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="K57" s="3">
         <v>46100</v>
@@ -3397,25 +3397,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>95100</v>
+        <v>95800</v>
       </c>
       <c r="E59" s="3">
-        <v>109600</v>
+        <v>110400</v>
       </c>
       <c r="F59" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="G59" s="3">
-        <v>120100</v>
+        <v>120900</v>
       </c>
       <c r="H59" s="3">
-        <v>87300</v>
+        <v>87900</v>
       </c>
       <c r="I59" s="3">
-        <v>97900</v>
+        <v>98600</v>
       </c>
       <c r="J59" s="3">
-        <v>84600</v>
+        <v>85200</v>
       </c>
       <c r="K59" s="3">
         <v>79900</v>
@@ -3456,25 +3456,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>147000</v>
+        <v>148000</v>
       </c>
       <c r="E60" s="3">
-        <v>162000</v>
+        <v>163000</v>
       </c>
       <c r="F60" s="3">
-        <v>146700</v>
+        <v>147700</v>
       </c>
       <c r="G60" s="3">
-        <v>174300</v>
+        <v>175500</v>
       </c>
       <c r="H60" s="3">
-        <v>138900</v>
+        <v>139800</v>
       </c>
       <c r="I60" s="3">
-        <v>146000</v>
+        <v>146900</v>
       </c>
       <c r="J60" s="3">
-        <v>119800</v>
+        <v>120600</v>
       </c>
       <c r="K60" s="3">
         <v>131600</v>
@@ -3515,25 +3515,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54700</v>
+        <v>55000</v>
       </c>
       <c r="E61" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="F61" s="3">
-        <v>42400</v>
+        <v>42700</v>
       </c>
       <c r="G61" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="H61" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="I61" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J61" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="K61" s="3">
         <v>9300</v>
@@ -3577,7 +3577,7 @@
         <v>10800</v>
       </c>
       <c r="E62" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="F62" s="3">
         <v>7300</v>
@@ -3810,25 +3810,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>212500</v>
+        <v>213900</v>
       </c>
       <c r="E66" s="3">
-        <v>215700</v>
+        <v>217100</v>
       </c>
       <c r="F66" s="3">
-        <v>196400</v>
+        <v>197700</v>
       </c>
       <c r="G66" s="3">
-        <v>197200</v>
+        <v>198500</v>
       </c>
       <c r="H66" s="3">
-        <v>163500</v>
+        <v>164600</v>
       </c>
       <c r="I66" s="3">
-        <v>169200</v>
+        <v>170400</v>
       </c>
       <c r="J66" s="3">
-        <v>142800</v>
+        <v>143700</v>
       </c>
       <c r="K66" s="3">
         <v>144100</v>
@@ -4128,25 +4128,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>481400</v>
+        <v>484700</v>
       </c>
       <c r="E72" s="3">
-        <v>478800</v>
+        <v>482000</v>
       </c>
       <c r="F72" s="3">
-        <v>470600</v>
+        <v>473700</v>
       </c>
       <c r="G72" s="3">
-        <v>463200</v>
+        <v>466300</v>
       </c>
       <c r="H72" s="3">
-        <v>449800</v>
+        <v>452800</v>
       </c>
       <c r="I72" s="3">
-        <v>443000</v>
+        <v>446000</v>
       </c>
       <c r="J72" s="3">
-        <v>423200</v>
+        <v>426000</v>
       </c>
       <c r="K72" s="3">
         <v>406400</v>
@@ -4364,25 +4364,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>483900</v>
+        <v>487200</v>
       </c>
       <c r="E76" s="3">
-        <v>481800</v>
+        <v>485000</v>
       </c>
       <c r="F76" s="3">
-        <v>469800</v>
+        <v>472900</v>
       </c>
       <c r="G76" s="3">
-        <v>464900</v>
+        <v>468000</v>
       </c>
       <c r="H76" s="3">
-        <v>450100</v>
+        <v>453100</v>
       </c>
       <c r="I76" s="3">
-        <v>443000</v>
+        <v>445900</v>
       </c>
       <c r="J76" s="3">
-        <v>424000</v>
+        <v>426800</v>
       </c>
       <c r="K76" s="3">
         <v>408100</v>
@@ -4546,7 +4546,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -4558,7 +4558,7 @@
         <v>1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I81" s="3">
         <v>2200</v>
@@ -4634,19 +4634,19 @@
         <v>3000</v>
       </c>
       <c r="F83" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>2500</v>
       </c>
       <c r="I83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J83" s="3">
         <v>2400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2300</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -4982,25 +4982,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40800</v>
+        <v>-41100</v>
       </c>
       <c r="E89" s="3">
-        <v>-29200</v>
+        <v>-29400</v>
       </c>
       <c r="F89" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="G89" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="H89" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="I89" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="J89" s="3">
-        <v>-20600</v>
+        <v>-20800</v>
       </c>
       <c r="K89" s="3">
         <v>24600</v>
@@ -5250,7 +5250,7 @@
         <v>-5500</v>
       </c>
       <c r="G94" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="H94" s="3">
         <v>-700</v>
@@ -5559,10 +5559,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F100" s="3">
         <v>-2700</v>
@@ -5577,7 +5577,7 @@
         <v>-1700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K100" s="3">
         <v>-1200</v>
@@ -5677,25 +5677,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41900</v>
+        <v>-42200</v>
       </c>
       <c r="E102" s="3">
-        <v>-38800</v>
+        <v>-39000</v>
       </c>
       <c r="F102" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="G102" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="H102" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="I102" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="J102" s="3">
-        <v>-22700</v>
+        <v>-22800</v>
       </c>
       <c r="K102" s="3">
         <v>22000</v>

--- a/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>MYTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>215600</v>
+        <v>221100</v>
       </c>
       <c r="E8" s="3">
-        <v>206100</v>
+        <v>215800</v>
       </c>
       <c r="F8" s="3">
-        <v>190700</v>
+        <v>206300</v>
       </c>
       <c r="G8" s="3">
-        <v>189500</v>
+        <v>190900</v>
       </c>
       <c r="H8" s="3">
-        <v>183800</v>
+        <v>189700</v>
       </c>
       <c r="I8" s="3">
-        <v>203400</v>
+        <v>183900</v>
       </c>
       <c r="J8" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K8" s="3">
         <v>171100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>168200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>158200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>126100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>139400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>115700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>124000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>121500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>117200</v>
+        <v>112700</v>
       </c>
       <c r="E9" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F9" s="3">
         <v>93200</v>
       </c>
-      <c r="F9" s="3">
-        <v>95500</v>
-      </c>
       <c r="G9" s="3">
+        <v>95600</v>
+      </c>
+      <c r="H9" s="3">
         <v>86800</v>
       </c>
-      <c r="H9" s="3">
-        <v>94000</v>
-      </c>
       <c r="I9" s="3">
-        <v>94800</v>
+        <v>94100</v>
       </c>
       <c r="J9" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K9" s="3">
         <v>87300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>89900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>79800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>66400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>69800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>71200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>64900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>65800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>98400</v>
+        <v>108400</v>
       </c>
       <c r="E10" s="3">
-        <v>112900</v>
+        <v>98500</v>
       </c>
       <c r="F10" s="3">
-        <v>95200</v>
+        <v>113000</v>
       </c>
       <c r="G10" s="3">
-        <v>102700</v>
+        <v>95300</v>
       </c>
       <c r="H10" s="3">
-        <v>89700</v>
+        <v>102800</v>
       </c>
       <c r="I10" s="3">
-        <v>108600</v>
+        <v>89800</v>
       </c>
       <c r="J10" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K10" s="3">
         <v>83800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>82000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>58600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>59100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>55700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,46 +1159,46 @@
         <v>3400</v>
       </c>
       <c r="E15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="3">
         <v>3000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2500</v>
       </c>
       <c r="I15" s="3">
         <v>2500</v>
       </c>
       <c r="J15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2000</v>
       </c>
       <c r="N15" s="3">
         <v>2000</v>
       </c>
       <c r="O15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2200</v>
       </c>
       <c r="S15" s="3">
         <v>2200</v>
@@ -1184,10 +1207,13 @@
         <v>2200</v>
       </c>
       <c r="U15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V15" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>222600</v>
+        <v>223600</v>
       </c>
       <c r="E17" s="3">
-        <v>202300</v>
+        <v>222800</v>
       </c>
       <c r="F17" s="3">
-        <v>191600</v>
+        <v>202500</v>
       </c>
       <c r="G17" s="3">
-        <v>188200</v>
+        <v>191800</v>
       </c>
       <c r="H17" s="3">
-        <v>185900</v>
+        <v>188300</v>
       </c>
       <c r="I17" s="3">
-        <v>193300</v>
+        <v>186100</v>
       </c>
       <c r="J17" s="3">
+        <v>193500</v>
+      </c>
+      <c r="K17" s="3">
         <v>175100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>178400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>220000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>113900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-51800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,20 +1380,21 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1374,119 +1408,125 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-42600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1495,17 +1535,17 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1515,8 +1555,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-47100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-51000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-51000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,20 +2122,23 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2082,99 +2152,105 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-51000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-51000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,47 +2487,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14000</v>
       </c>
-      <c r="E41" s="3">
-        <v>56200</v>
-      </c>
       <c r="F41" s="3">
-        <v>95300</v>
+        <v>56300</v>
       </c>
       <c r="G41" s="3">
-        <v>123100</v>
+        <v>95400</v>
       </c>
       <c r="H41" s="3">
-        <v>101400</v>
+        <v>123200</v>
       </c>
       <c r="I41" s="3">
+        <v>101500</v>
+      </c>
+      <c r="J41" s="3">
         <v>86500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,47 +2609,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3">
-        <v>45300</v>
-      </c>
       <c r="J43" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2578,47 +2671,50 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>353300</v>
+        <v>390900</v>
       </c>
       <c r="E44" s="3">
-        <v>333900</v>
+        <v>353600</v>
       </c>
       <c r="F44" s="3">
-        <v>284200</v>
+        <v>334200</v>
       </c>
       <c r="G44" s="3">
-        <v>249500</v>
+        <v>284500</v>
       </c>
       <c r="H44" s="3">
-        <v>245100</v>
+        <v>249700</v>
       </c>
       <c r="I44" s="3">
-        <v>264900</v>
+        <v>245300</v>
       </c>
       <c r="J44" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K44" s="3">
         <v>287200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>261400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>237400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>231400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>201900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2637,47 +2733,50 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E45" s="3">
         <v>46600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43500</v>
       </c>
-      <c r="F45" s="3">
-        <v>35300</v>
-      </c>
       <c r="G45" s="3">
+        <v>35400</v>
+      </c>
+      <c r="H45" s="3">
         <v>67100</v>
       </c>
-      <c r="H45" s="3">
-        <v>63600</v>
-      </c>
       <c r="I45" s="3">
+        <v>63700</v>
+      </c>
+      <c r="J45" s="3">
         <v>19000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2696,47 +2795,50 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>420400</v>
+        <v>477400</v>
       </c>
       <c r="E46" s="3">
-        <v>441800</v>
+        <v>420800</v>
       </c>
       <c r="F46" s="3">
-        <v>421500</v>
+        <v>442100</v>
       </c>
       <c r="G46" s="3">
-        <v>448600</v>
+        <v>421900</v>
       </c>
       <c r="H46" s="3">
-        <v>416600</v>
+        <v>449000</v>
       </c>
       <c r="I46" s="3">
-        <v>415700</v>
+        <v>417000</v>
       </c>
       <c r="J46" s="3">
+        <v>416000</v>
+      </c>
+      <c r="K46" s="3">
         <v>368200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>363400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>317500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>260700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>230500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2755,26 +2857,29 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E47" s="3">
         <v>8100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2787,8 +2892,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2814,47 +2919,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97500</v>
+        <v>99800</v>
       </c>
       <c r="E48" s="3">
+        <v>97600</v>
+      </c>
+      <c r="F48" s="3">
         <v>80600</v>
       </c>
-      <c r="F48" s="3">
-        <v>73600</v>
-      </c>
       <c r="G48" s="3">
+        <v>73700</v>
+      </c>
+      <c r="H48" s="3">
         <v>42700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32800</v>
       </c>
-      <c r="I48" s="3">
-        <v>32200</v>
-      </c>
       <c r="J48" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K48" s="3">
         <v>33800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,7 +2993,7 @@
         <v>168500</v>
       </c>
       <c r="E49" s="3">
-        <v>168100</v>
+        <v>168600</v>
       </c>
       <c r="F49" s="3">
         <v>168200</v>
@@ -2891,7 +3002,7 @@
         <v>168300</v>
       </c>
       <c r="H49" s="3">
-        <v>168300</v>
+        <v>168400</v>
       </c>
       <c r="I49" s="3">
         <v>168400</v>
@@ -2900,20 +3011,20 @@
         <v>168600</v>
       </c>
       <c r="K49" s="3">
+        <v>168600</v>
+      </c>
+      <c r="L49" s="3">
         <v>164600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>158000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>154500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>154600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,13 +3167,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>6600</v>
@@ -3067,8 +3187,8 @@
       <c r="G52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>6600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3076,11 +3196,11 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -3094,8 +3214,8 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3291,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>701000</v>
+        <v>753000</v>
       </c>
       <c r="E54" s="3">
-        <v>702100</v>
+        <v>701600</v>
       </c>
       <c r="F54" s="3">
-        <v>670600</v>
+        <v>702700</v>
       </c>
       <c r="G54" s="3">
-        <v>666500</v>
+        <v>671200</v>
       </c>
       <c r="H54" s="3">
-        <v>617700</v>
+        <v>667000</v>
       </c>
       <c r="I54" s="3">
-        <v>616300</v>
+        <v>618200</v>
       </c>
       <c r="J54" s="3">
+        <v>616800</v>
+      </c>
+      <c r="K54" s="3">
         <v>570500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>552200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>440900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>412500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,47 +3403,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E57" s="3">
         <v>39600</v>
       </c>
-      <c r="E57" s="3">
-        <v>46900</v>
-      </c>
       <c r="F57" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G57" s="3">
         <v>37900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3332,47 +3463,50 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12600</v>
+        <v>8800</v>
       </c>
       <c r="E58" s="3">
-        <v>5700</v>
+        <v>12700</v>
       </c>
       <c r="F58" s="3">
         <v>5700</v>
       </c>
       <c r="G58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
-        <v>5500</v>
-      </c>
       <c r="I58" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J58" s="3">
         <v>5900</v>
       </c>
       <c r="K58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3391,47 +3525,50 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>95800</v>
+        <v>124100</v>
       </c>
       <c r="E59" s="3">
-        <v>110400</v>
+        <v>95900</v>
       </c>
       <c r="F59" s="3">
+        <v>110500</v>
+      </c>
+      <c r="G59" s="3">
         <v>104100</v>
       </c>
-      <c r="G59" s="3">
-        <v>120900</v>
-      </c>
       <c r="H59" s="3">
+        <v>121000</v>
+      </c>
+      <c r="I59" s="3">
         <v>87900</v>
       </c>
-      <c r="I59" s="3">
-        <v>98600</v>
-      </c>
       <c r="J59" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K59" s="3">
         <v>85200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3450,47 +3587,50 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>148000</v>
+        <v>210100</v>
       </c>
       <c r="E60" s="3">
-        <v>163000</v>
+        <v>148200</v>
       </c>
       <c r="F60" s="3">
-        <v>147700</v>
+        <v>163200</v>
       </c>
       <c r="G60" s="3">
-        <v>175500</v>
+        <v>147800</v>
       </c>
       <c r="H60" s="3">
-        <v>139800</v>
+        <v>175600</v>
       </c>
       <c r="I60" s="3">
-        <v>146900</v>
+        <v>139900</v>
       </c>
       <c r="J60" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K60" s="3">
         <v>120600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>143600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>124200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3509,47 +3649,50 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55000</v>
+        <v>53700</v>
       </c>
       <c r="E61" s="3">
-        <v>43400</v>
+        <v>55100</v>
       </c>
       <c r="F61" s="3">
+        <v>43500</v>
+      </c>
+      <c r="G61" s="3">
         <v>42700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>185500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>197500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3568,47 +3711,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>10800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,47 +3959,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>213900</v>
+        <v>267500</v>
       </c>
       <c r="E66" s="3">
-        <v>217100</v>
+        <v>214100</v>
       </c>
       <c r="F66" s="3">
-        <v>197700</v>
+        <v>217300</v>
       </c>
       <c r="G66" s="3">
-        <v>198500</v>
+        <v>197800</v>
       </c>
       <c r="H66" s="3">
-        <v>164600</v>
+        <v>198700</v>
       </c>
       <c r="I66" s="3">
-        <v>170400</v>
+        <v>164700</v>
       </c>
       <c r="J66" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K66" s="3">
         <v>143700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>144100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>350700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>338000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,47 +4293,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>484700</v>
+        <v>483800</v>
       </c>
       <c r="E72" s="3">
-        <v>482000</v>
+        <v>485100</v>
       </c>
       <c r="F72" s="3">
-        <v>473700</v>
+        <v>482400</v>
       </c>
       <c r="G72" s="3">
-        <v>466300</v>
+        <v>474100</v>
       </c>
       <c r="H72" s="3">
-        <v>452800</v>
+        <v>466700</v>
       </c>
       <c r="I72" s="3">
-        <v>446000</v>
+        <v>453100</v>
       </c>
       <c r="J72" s="3">
+        <v>446300</v>
+      </c>
+      <c r="K72" s="3">
         <v>426000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>406400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>384500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>87900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,47 +4541,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>487200</v>
+        <v>485500</v>
       </c>
       <c r="E76" s="3">
-        <v>485000</v>
+        <v>487600</v>
       </c>
       <c r="F76" s="3">
-        <v>472900</v>
+        <v>485400</v>
       </c>
       <c r="G76" s="3">
-        <v>468000</v>
+        <v>473300</v>
       </c>
       <c r="H76" s="3">
-        <v>453100</v>
+        <v>468400</v>
       </c>
       <c r="I76" s="3">
-        <v>445900</v>
+        <v>453500</v>
       </c>
       <c r="J76" s="3">
+        <v>446300</v>
+      </c>
+      <c r="K76" s="3">
         <v>426800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>408100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>386100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-51000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,37 +4830,37 @@
         <v>3400</v>
       </c>
       <c r="E83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2500</v>
       </c>
       <c r="I83" s="3">
         <v>2500</v>
       </c>
       <c r="J83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2000</v>
       </c>
       <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
+      <c r="O83" s="3">
+        <v>2000</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,47 +5190,50 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-41100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,47 +5278,48 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,47 +5462,50 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7000</v>
+        <v>-4200</v>
       </c>
       <c r="E94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,47 +5796,50 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
         <v>6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1700</v>
       </c>
       <c r="J100" s="3">
         <v>-1700</v>
       </c>
       <c r="K100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>62600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,11 +5870,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5650,8 +5899,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
@@ -5671,47 +5920,50 @@
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-39000</v>
-      </c>
       <c r="F102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-27800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21700</v>
       </c>
-      <c r="H102" s="3">
-        <v>14900</v>
-      </c>
       <c r="I102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J102" s="3">
         <v>26100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>8</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
